--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\The Brookings Institution\Hutchins Center Team - Documents\Projects\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{0ED1648B-D5CA-4B20-9020-054624023CDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{621157C9-9B5A-4517-9FD8-3D4E6F1340DB}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{0ED1648B-D5CA-4B20-9020-054624023CDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD9B89EE-FBDC-4797-9042-D540264669B6}"/>
   <bookViews>
-    <workbookView xWindow="53325" yWindow="825" windowWidth="4275" windowHeight="2175" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="misc" sheetId="10" r:id="rId2"/>
-    <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
-    <sheet name="MPC" sheetId="8" r:id="rId5"/>
-    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId6"/>
-    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="figuring out UI" sheetId="4" r:id="rId8"/>
-    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId9"/>
-    <sheet name="figuring out social benefits" sheetId="2" r:id="rId10"/>
+    <sheet name="add-ons calculations" sheetId="5" r:id="rId2"/>
+    <sheet name="FIM Add Factors" sheetId="9" r:id="rId3"/>
+    <sheet name="MPC" sheetId="8" r:id="rId4"/>
+    <sheet name="figuring out Medicaid" sheetId="7" r:id="rId5"/>
+    <sheet name="add-ons - Kadija b4" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="figuring out UI" sheetId="4" r:id="rId7"/>
+    <sheet name="figuring NIPA tax changes" sheetId="3" r:id="rId8"/>
+    <sheet name="figuring out social benefits" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -185,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="265">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -2386,13 +2385,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2764,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6390,3683 +6389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010B404F-448D-4E36-A88E-C07F48F0DCD8}">
-  <dimension ref="A1:X91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="214" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="214"/>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214"/>
-      <c r="Q6" s="214"/>
-      <c r="R6" s="214"/>
-      <c r="S6" s="214"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="215" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="216"/>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21">
-        <v>2019</v>
-      </c>
-      <c r="G10" s="21">
-        <v>2020</v>
-      </c>
-      <c r="H10" s="21">
-        <v>2021</v>
-      </c>
-      <c r="I10" s="21">
-        <v>2022</v>
-      </c>
-      <c r="J10" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K10" s="21">
-        <v>2024</v>
-      </c>
-      <c r="L10" s="21">
-        <v>2025</v>
-      </c>
-      <c r="M10" s="21">
-        <v>2026</v>
-      </c>
-      <c r="N10" s="21">
-        <v>2027</v>
-      </c>
-      <c r="O10" s="21">
-        <v>2028</v>
-      </c>
-      <c r="P10" s="21">
-        <v>2029</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>2030</v>
-      </c>
-      <c r="R10" s="22">
-        <v>2025</v>
-      </c>
-      <c r="S10" s="22">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-    </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="25">
-        <v>893.31600000000003</v>
-      </c>
-      <c r="G12" s="25">
-        <v>945.50099999999998</v>
-      </c>
-      <c r="H12" s="25">
-        <v>992.75099999999998</v>
-      </c>
-      <c r="I12" s="25">
-        <v>1045.5989999999999</v>
-      </c>
-      <c r="J12" s="25">
-        <v>1104.202</v>
-      </c>
-      <c r="K12" s="25">
-        <v>1168.675</v>
-      </c>
-      <c r="L12" s="25">
-        <v>1237.8699999999999</v>
-      </c>
-      <c r="M12" s="25">
-        <v>1309.1790000000001</v>
-      </c>
-      <c r="N12" s="25">
-        <v>1381.18</v>
-      </c>
-      <c r="O12" s="25">
-        <v>1463.298</v>
-      </c>
-      <c r="P12" s="25">
-        <v>1544.8389999999999</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>1628.78</v>
-      </c>
-      <c r="R12" s="25">
-        <v>5549.0969999999998</v>
-      </c>
-      <c r="S12" s="25">
-        <v>12876.373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="25">
-        <v>145.173</v>
-      </c>
-      <c r="G13" s="25">
-        <v>145.40199999999999</v>
-      </c>
-      <c r="H13" s="25">
-        <v>149.36199999999999</v>
-      </c>
-      <c r="I13" s="25">
-        <v>155.83199999999999</v>
-      </c>
-      <c r="J13" s="25">
-        <v>163.71299999999999</v>
-      </c>
-      <c r="K13" s="25">
-        <v>172.196</v>
-      </c>
-      <c r="L13" s="25">
-        <v>179.38399999999999</v>
-      </c>
-      <c r="M13" s="25">
-        <v>187.07300000000001</v>
-      </c>
-      <c r="N13" s="25">
-        <v>194.27600000000001</v>
-      </c>
-      <c r="O13" s="25">
-        <v>196.48699999999999</v>
-      </c>
-      <c r="P13" s="25">
-        <v>200.899</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>205.81</v>
-      </c>
-      <c r="R13" s="25">
-        <v>820.48699999999997</v>
-      </c>
-      <c r="S13" s="25">
-        <v>1805.0319999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="25">
-        <v>1038.489</v>
-      </c>
-      <c r="G15" s="25">
-        <v>1090.903</v>
-      </c>
-      <c r="H15" s="25">
-        <v>1142.1130000000001</v>
-      </c>
-      <c r="I15" s="25">
-        <v>1201.431</v>
-      </c>
-      <c r="J15" s="25">
-        <v>1267.915</v>
-      </c>
-      <c r="K15" s="25">
-        <v>1340.8710000000001</v>
-      </c>
-      <c r="L15" s="25">
-        <v>1417.2539999999999</v>
-      </c>
-      <c r="M15" s="25">
-        <v>1496.252</v>
-      </c>
-      <c r="N15" s="25">
-        <v>1575.4559999999999</v>
-      </c>
-      <c r="O15" s="25">
-        <v>1659.7850000000001</v>
-      </c>
-      <c r="P15" s="25">
-        <v>1745.7380000000001</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>1834.59</v>
-      </c>
-      <c r="R15" s="25">
-        <v>6369.5839999999998</v>
-      </c>
-      <c r="S15" s="25">
-        <v>14681.405000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="25">
-        <v>775.40599999999995</v>
-      </c>
-      <c r="G18" s="25">
-        <v>862.06799999999998</v>
-      </c>
-      <c r="H18" s="25">
-        <v>809.73299999999995</v>
-      </c>
-      <c r="I18" s="25">
-        <v>973.27200000000005</v>
-      </c>
-      <c r="J18" s="25">
-        <v>1013.1</v>
-      </c>
-      <c r="K18" s="25">
-        <v>1036.248</v>
-      </c>
-      <c r="L18" s="25">
-        <v>1157.7950000000001</v>
-      </c>
-      <c r="M18" s="25">
-        <v>1239.729</v>
-      </c>
-      <c r="N18" s="25">
-        <v>1327.9649999999999</v>
-      </c>
-      <c r="O18" s="25">
-        <v>1490.789</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1449.9179999999999</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>1611.2940000000001</v>
-      </c>
-      <c r="R18" s="25">
-        <v>4990.1480000000001</v>
-      </c>
-      <c r="S18" s="25">
-        <v>12109.843000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25">
-        <v>409.42099999999999</v>
-      </c>
-      <c r="G19" s="25">
-        <v>466.24400000000003</v>
-      </c>
-      <c r="H19" s="25">
-        <v>537.41499999999996</v>
-      </c>
-      <c r="I19" s="25">
-        <v>516.01800000000003</v>
-      </c>
-      <c r="J19" s="25">
-        <v>494.83100000000002</v>
-      </c>
-      <c r="K19" s="25">
-        <v>517.13499999999999</v>
-      </c>
-      <c r="L19" s="25">
-        <v>545.38900000000001</v>
-      </c>
-      <c r="M19" s="25">
-        <v>574.79</v>
-      </c>
-      <c r="N19" s="25">
-        <v>605.32899999999995</v>
-      </c>
-      <c r="O19" s="25">
-        <v>637.02200000000005</v>
-      </c>
-      <c r="P19" s="25">
-        <v>670.57799999999997</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>707.21</v>
-      </c>
-      <c r="R19" s="25">
-        <v>2610.788</v>
-      </c>
-      <c r="S19" s="25">
-        <v>5805.7169999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="25">
-        <v>55.533000000000001</v>
-      </c>
-      <c r="G20" s="25">
-        <v>54.094999999999999</v>
-      </c>
-      <c r="H20" s="25">
-        <v>56.356999999999999</v>
-      </c>
-      <c r="I20" s="25">
-        <v>54.631999999999998</v>
-      </c>
-      <c r="J20" s="25">
-        <v>54.654000000000003</v>
-      </c>
-      <c r="K20" s="25">
-        <v>55.994</v>
-      </c>
-      <c r="L20" s="25">
-        <v>56.795999999999999</v>
-      </c>
-      <c r="M20" s="25">
-        <v>58.15</v>
-      </c>
-      <c r="N20" s="25">
-        <v>60.082000000000001</v>
-      </c>
-      <c r="O20" s="25">
-        <v>63.768999999999998</v>
-      </c>
-      <c r="P20" s="25">
-        <v>67.947000000000003</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>72.968000000000004</v>
-      </c>
-      <c r="R20" s="25">
-        <v>278.43299999999999</v>
-      </c>
-      <c r="S20" s="25">
-        <v>601.34900000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25">
-        <v>17.689</v>
-      </c>
-      <c r="G21" s="25">
-        <v>17.004999999999999</v>
-      </c>
-      <c r="H21" s="25">
-        <v>15.552</v>
-      </c>
-      <c r="I21" s="25">
-        <v>15.342000000000001</v>
-      </c>
-      <c r="J21" s="25">
-        <v>15.228999999999999</v>
-      </c>
-      <c r="K21" s="25">
-        <v>15.723000000000001</v>
-      </c>
-      <c r="L21" s="25">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="M21" s="25">
-        <v>16.841999999999999</v>
-      </c>
-      <c r="N21" s="25">
-        <v>17.452000000000002</v>
-      </c>
-      <c r="O21" s="25">
-        <v>17.805</v>
-      </c>
-      <c r="P21" s="25">
-        <v>18.521999999999998</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>19.343</v>
-      </c>
-      <c r="R21" s="25">
-        <v>78.105999999999995</v>
-      </c>
-      <c r="S21" s="25">
-        <v>168.07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="25">
-        <v>1258.049</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1399.412</v>
-      </c>
-      <c r="H23" s="25">
-        <v>1419.057</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1559.2639999999999</v>
-      </c>
-      <c r="J23" s="25">
-        <v>1577.8140000000001</v>
-      </c>
-      <c r="K23" s="25">
-        <v>1625.1</v>
-      </c>
-      <c r="L23" s="25">
-        <v>1776.24</v>
-      </c>
-      <c r="M23" s="25">
-        <v>1889.511</v>
-      </c>
-      <c r="N23" s="25">
-        <v>2010.828</v>
-      </c>
-      <c r="O23" s="25">
-        <v>2209.3850000000002</v>
-      </c>
-      <c r="P23" s="25">
-        <v>2206.9650000000001</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>2410.8150000000001</v>
-      </c>
-      <c r="R23" s="25">
-        <v>7957.4750000000004</v>
-      </c>
-      <c r="S23" s="25">
-        <v>18684.978999999999</v>
-      </c>
-      <c r="T23" s="25"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="23">
-        <f>F23+F68</f>
-        <v>1126.519</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-    </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="25">
-        <v>99.244</v>
-      </c>
-      <c r="G26" s="25">
-        <v>369.25299999999999</v>
-      </c>
-      <c r="H26" s="25">
-        <v>102.35299999999999</v>
-      </c>
-      <c r="I26" s="25">
-        <v>99.980999999999995</v>
-      </c>
-      <c r="J26" s="25">
-        <v>97.82</v>
-      </c>
-      <c r="K26" s="25">
-        <v>98.616</v>
-      </c>
-      <c r="L26" s="25">
-        <v>98.67</v>
-      </c>
-      <c r="M26" s="25">
-        <v>98.427000000000007</v>
-      </c>
-      <c r="N26" s="25">
-        <v>84.466999999999999</v>
-      </c>
-      <c r="O26" s="25">
-        <v>83.573999999999998</v>
-      </c>
-      <c r="P26" s="25">
-        <v>83.302999999999997</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>83.73</v>
-      </c>
-      <c r="R26" s="25">
-        <v>497.44</v>
-      </c>
-      <c r="S26" s="25">
-        <v>930.94100000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="25">
-        <v>63.465000000000003</v>
-      </c>
-      <c r="G27" s="25">
-        <v>91.944000000000003</v>
-      </c>
-      <c r="H27" s="25">
-        <v>114.301</v>
-      </c>
-      <c r="I27" s="25">
-        <v>94.231999999999999</v>
-      </c>
-      <c r="J27" s="25">
-        <v>84.835999999999999</v>
-      </c>
-      <c r="K27" s="25">
-        <v>84.662000000000006</v>
-      </c>
-      <c r="L27" s="25">
-        <v>84.671000000000006</v>
-      </c>
-      <c r="M27" s="25">
-        <v>84.638000000000005</v>
-      </c>
-      <c r="N27" s="25">
-        <v>84.537000000000006</v>
-      </c>
-      <c r="O27" s="25">
-        <v>83.39</v>
-      </c>
-      <c r="P27" s="25">
-        <v>81.198999999999998</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>78.844999999999999</v>
-      </c>
-      <c r="R27" s="25">
-        <v>462.702</v>
-      </c>
-      <c r="S27" s="25">
-        <v>875.31100000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="25">
-        <v>56.072000000000003</v>
-      </c>
-      <c r="G28" s="25">
-        <v>57</v>
-      </c>
-      <c r="H28" s="25">
-        <v>58.31</v>
-      </c>
-      <c r="I28" s="25">
-        <v>65.16</v>
-      </c>
-      <c r="J28" s="25">
-        <v>62.86</v>
-      </c>
-      <c r="K28" s="25">
-        <v>60.36</v>
-      </c>
-      <c r="L28" s="25">
-        <v>68.209999999999994</v>
-      </c>
-      <c r="M28" s="25">
-        <v>70.36</v>
-      </c>
-      <c r="N28" s="25">
-        <v>72.069999999999993</v>
-      </c>
-      <c r="O28" s="25">
-        <v>79.540000000000006</v>
-      </c>
-      <c r="P28" s="25">
-        <v>69.14</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>76.709999999999994</v>
-      </c>
-      <c r="R28" s="25">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="S28" s="25">
-        <v>682.72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="25">
-        <v>27.626999999999999</v>
-      </c>
-      <c r="G29" s="25">
-        <v>556.65700000000004</v>
-      </c>
-      <c r="H29" s="25">
-        <v>166.24100000000001</v>
-      </c>
-      <c r="I29" s="25">
-        <v>66.784000000000006</v>
-      </c>
-      <c r="J29" s="25">
-        <v>57.195999999999998</v>
-      </c>
-      <c r="K29" s="25">
-        <v>53.128</v>
-      </c>
-      <c r="L29" s="25">
-        <v>49.076000000000001</v>
-      </c>
-      <c r="M29" s="25">
-        <v>46.4</v>
-      </c>
-      <c r="N29" s="25">
-        <v>43.795000000000002</v>
-      </c>
-      <c r="O29" s="25">
-        <v>42.014000000000003</v>
-      </c>
-      <c r="P29" s="25">
-        <v>42.326999999999998</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>43.463000000000001</v>
-      </c>
-      <c r="R29" s="25">
-        <v>392.42500000000001</v>
-      </c>
-      <c r="S29" s="25">
-        <v>610.42399999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="25">
-        <v>32.091999999999999</v>
-      </c>
-      <c r="G30" s="25">
-        <v>33.136000000000003</v>
-      </c>
-      <c r="H30" s="25">
-        <v>33.457000000000001</v>
-      </c>
-      <c r="I30" s="25">
-        <v>33.357999999999997</v>
-      </c>
-      <c r="J30" s="25">
-        <v>33.220999999999997</v>
-      </c>
-      <c r="K30" s="25">
-        <v>33.551000000000002</v>
-      </c>
-      <c r="L30" s="25">
-        <v>33.93</v>
-      </c>
-      <c r="M30" s="25">
-        <v>34.127000000000002</v>
-      </c>
-      <c r="N30" s="25">
-        <v>34.392000000000003</v>
-      </c>
-      <c r="O30" s="25">
-        <v>34.612000000000002</v>
-      </c>
-      <c r="P30" s="25">
-        <v>34.838000000000001</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>35.093000000000004</v>
-      </c>
-      <c r="R30" s="25">
-        <v>167.517</v>
-      </c>
-      <c r="S30" s="25">
-        <v>340.57900000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="25">
-        <v>24.148</v>
-      </c>
-      <c r="G31" s="25">
-        <v>23.616</v>
-      </c>
-      <c r="H31" s="25">
-        <v>24.824999999999999</v>
-      </c>
-      <c r="I31" s="25">
-        <v>26.01</v>
-      </c>
-      <c r="J31" s="25">
-        <v>26.977</v>
-      </c>
-      <c r="K31" s="25">
-        <v>27.97</v>
-      </c>
-      <c r="L31" s="25">
-        <v>29.050999999999998</v>
-      </c>
-      <c r="M31" s="25">
-        <v>30.202999999999999</v>
-      </c>
-      <c r="N31" s="25">
-        <v>31.414999999999999</v>
-      </c>
-      <c r="O31" s="25">
-        <v>32.686</v>
-      </c>
-      <c r="P31" s="25">
-        <v>34.037999999999997</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>35.448999999999998</v>
-      </c>
-      <c r="R31" s="25">
-        <v>134.833</v>
-      </c>
-      <c r="S31" s="25">
-        <v>298.62400000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S32" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="25">
-        <v>302.64800000000002</v>
-      </c>
-      <c r="G33" s="25">
-        <v>1131.606</v>
-      </c>
-      <c r="H33" s="25">
-        <v>499.48700000000002</v>
-      </c>
-      <c r="I33" s="25">
-        <v>385.52499999999998</v>
-      </c>
-      <c r="J33" s="25">
-        <v>362.91</v>
-      </c>
-      <c r="K33" s="25">
-        <v>358.28699999999998</v>
-      </c>
-      <c r="L33" s="25">
-        <v>363.608</v>
-      </c>
-      <c r="M33" s="25">
-        <v>364.15499999999997</v>
-      </c>
-      <c r="N33" s="25">
-        <v>350.67599999999999</v>
-      </c>
-      <c r="O33" s="25">
-        <v>355.81599999999997</v>
-      </c>
-      <c r="P33" s="25">
-        <v>344.84500000000003</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>353.29</v>
-      </c>
-      <c r="R33" s="25">
-        <v>1969.817</v>
-      </c>
-      <c r="S33" s="25">
-        <v>3738.5990000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="V34" s="6">
-        <v>2156</v>
-      </c>
-      <c r="W34" s="6">
-        <v>3225</v>
-      </c>
-      <c r="X34" s="6">
-        <f>W34-V34</f>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="U35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="V35" s="6">
-        <v>775</v>
-      </c>
-      <c r="W35" s="6">
-        <v>862</v>
-      </c>
-      <c r="X35" s="6">
-        <f>W35-V35</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="25">
-        <v>105.95099999999999</v>
-      </c>
-      <c r="G36" s="25">
-        <v>108.867</v>
-      </c>
-      <c r="H36" s="25">
-        <v>111.551</v>
-      </c>
-      <c r="I36" s="25">
-        <v>114.39</v>
-      </c>
-      <c r="J36" s="25">
-        <v>117.389</v>
-      </c>
-      <c r="K36" s="25">
-        <v>120.721</v>
-      </c>
-      <c r="L36" s="25">
-        <v>124.235</v>
-      </c>
-      <c r="M36" s="25">
-        <v>127.459</v>
-      </c>
-      <c r="N36" s="25">
-        <v>131.07499999999999</v>
-      </c>
-      <c r="O36" s="25">
-        <v>134.679</v>
-      </c>
-      <c r="P36" s="25">
-        <v>138.11099999999999</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>141.51</v>
-      </c>
-      <c r="R36" s="25">
-        <v>588.28599999999994</v>
-      </c>
-      <c r="S36" s="25">
-        <v>1261.1199999999999</v>
-      </c>
-      <c r="U36" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="V36" s="6">
-        <v>99</v>
-      </c>
-      <c r="W36" s="6">
-        <v>369</v>
-      </c>
-      <c r="X36" s="6">
-        <f>W36-V36</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="25">
-        <v>60.703000000000003</v>
-      </c>
-      <c r="G37" s="25">
-        <v>62.25</v>
-      </c>
-      <c r="H37" s="25">
-        <v>63.75</v>
-      </c>
-      <c r="I37" s="25">
-        <v>70.5</v>
-      </c>
-      <c r="J37" s="25">
-        <v>67.2</v>
-      </c>
-      <c r="K37" s="25">
-        <v>63.35</v>
-      </c>
-      <c r="L37" s="25">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="M37" s="25">
-        <v>72.2</v>
-      </c>
-      <c r="N37" s="25">
-        <v>74</v>
-      </c>
-      <c r="O37" s="25">
-        <v>81.8</v>
-      </c>
-      <c r="P37" s="25">
-        <v>71.7</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="R37" s="25">
-        <v>335.2</v>
-      </c>
-      <c r="S37" s="25">
-        <v>714.5</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="V37" s="6">
-        <v>28</v>
-      </c>
-      <c r="W37" s="6">
-        <v>557</v>
-      </c>
-      <c r="X37" s="6">
-        <f>W37-V37</f>
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="25">
-        <v>3.3919999999999999</v>
-      </c>
-      <c r="G38" s="25">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="H38" s="25">
-        <v>3.8940000000000001</v>
-      </c>
-      <c r="I38" s="25">
-        <v>4.3310000000000004</v>
-      </c>
-      <c r="J38" s="25">
-        <v>5.1680000000000001</v>
-      </c>
-      <c r="K38" s="25">
-        <v>5.306</v>
-      </c>
-      <c r="L38" s="25">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="M38" s="25">
-        <v>10.694000000000001</v>
-      </c>
-      <c r="N38" s="25">
-        <v>6.8220000000000001</v>
-      </c>
-      <c r="O38" s="25">
-        <v>6.0540000000000003</v>
-      </c>
-      <c r="P38" s="25">
-        <v>6.1280000000000001</v>
-      </c>
-      <c r="Q38" s="25">
-        <v>6.3620000000000001</v>
-      </c>
-      <c r="R38" s="25">
-        <v>20.632999999999999</v>
-      </c>
-      <c r="S38" s="25">
-        <v>56.692999999999998</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="V38" s="6">
-        <v>63</v>
-      </c>
-      <c r="W38" s="6">
-        <v>92</v>
-      </c>
-      <c r="X38" s="6">
-        <f>W38-V38</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S39" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="25">
-        <v>170.04599999999999</v>
-      </c>
-      <c r="G40" s="25">
-        <v>173.13499999999999</v>
-      </c>
-      <c r="H40" s="25">
-        <v>179.19499999999999</v>
-      </c>
-      <c r="I40" s="25">
-        <v>189.221</v>
-      </c>
-      <c r="J40" s="25">
-        <v>189.75700000000001</v>
-      </c>
-      <c r="K40" s="25">
-        <v>189.37700000000001</v>
-      </c>
-      <c r="L40" s="25">
-        <v>196.56899999999999</v>
-      </c>
-      <c r="M40" s="25">
-        <v>210.35300000000001</v>
-      </c>
-      <c r="N40" s="25">
-        <v>211.89699999999999</v>
-      </c>
-      <c r="O40" s="25">
-        <v>222.53299999999999</v>
-      </c>
-      <c r="P40" s="25">
-        <v>215.93899999999999</v>
-      </c>
-      <c r="Q40" s="25">
-        <v>227.47200000000001</v>
-      </c>
-      <c r="R40" s="25">
-        <v>944.11900000000003</v>
-      </c>
-      <c r="S40" s="25">
-        <v>2032.3130000000001</v>
-      </c>
-      <c r="U40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="V40" s="6">
-        <v>115</v>
-      </c>
-      <c r="W40" s="6">
-        <v>122</v>
-      </c>
-      <c r="X40" s="6">
-        <f>W40-V40</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="U41" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="V41" s="6">
-        <v>1038</v>
-      </c>
-      <c r="W41" s="6">
-        <v>1091</v>
-      </c>
-      <c r="X41" s="6">
-        <f>W41-V41</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="U42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="V42" s="6">
-        <v>0</v>
-      </c>
-      <c r="W42" s="6">
-        <v>105</v>
-      </c>
-      <c r="X42" s="6">
-        <f>W42-V42</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="25">
-        <v>101.09699999999999</v>
-      </c>
-      <c r="G43" s="25">
-        <v>111.658</v>
-      </c>
-      <c r="H43" s="25">
-        <v>115.39100000000001</v>
-      </c>
-      <c r="I43" s="25">
-        <v>128.47800000000001</v>
-      </c>
-      <c r="J43" s="25">
-        <v>123.547</v>
-      </c>
-      <c r="K43" s="25">
-        <v>116.509</v>
-      </c>
-      <c r="L43" s="25">
-        <v>131.29</v>
-      </c>
-      <c r="M43" s="25">
-        <v>135.39500000000001</v>
-      </c>
-      <c r="N43" s="25">
-        <v>139.499</v>
-      </c>
-      <c r="O43" s="25">
-        <v>155.96</v>
-      </c>
-      <c r="P43" s="25">
-        <v>135.941</v>
-      </c>
-      <c r="Q43" s="25">
-        <v>152.64099999999999</v>
-      </c>
-      <c r="R43" s="25">
-        <v>615.21500000000003</v>
-      </c>
-      <c r="S43" s="25">
-        <v>1334.6510000000001</v>
-      </c>
-      <c r="T43" s="25"/>
-      <c r="X43" s="6">
-        <f>SUM(X35:X42)</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="25">
-        <v>13.925000000000001</v>
-      </c>
-      <c r="G44" s="25">
-        <v>9.9890000000000008</v>
-      </c>
-      <c r="H44" s="25">
-        <v>16.190999999999999</v>
-      </c>
-      <c r="I44" s="25">
-        <v>18.504999999999999</v>
-      </c>
-      <c r="J44" s="25">
-        <v>17.693999999999999</v>
-      </c>
-      <c r="K44" s="25">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="L44" s="25">
-        <v>17.806000000000001</v>
-      </c>
-      <c r="M44" s="25">
-        <v>18.079000000000001</v>
-      </c>
-      <c r="N44" s="25">
-        <v>18.611000000000001</v>
-      </c>
-      <c r="O44" s="25">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="P44" s="25">
-        <v>18.477</v>
-      </c>
-      <c r="Q44" s="25">
-        <v>20.954999999999998</v>
-      </c>
-      <c r="R44" s="25">
-        <v>87.096000000000004</v>
-      </c>
-      <c r="S44" s="25">
-        <v>183.27699999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R45" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S45" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="25">
-        <v>115.02200000000001</v>
-      </c>
-      <c r="G46" s="25">
-        <v>121.64700000000001</v>
-      </c>
-      <c r="H46" s="25">
-        <v>131.58199999999999</v>
-      </c>
-      <c r="I46" s="25">
-        <v>146.983</v>
-      </c>
-      <c r="J46" s="25">
-        <v>141.24100000000001</v>
-      </c>
-      <c r="K46" s="25">
-        <v>133.40899999999999</v>
-      </c>
-      <c r="L46" s="25">
-        <v>149.096</v>
-      </c>
-      <c r="M46" s="25">
-        <v>153.47399999999999</v>
-      </c>
-      <c r="N46" s="25">
-        <v>158.11000000000001</v>
-      </c>
-      <c r="O46" s="25">
-        <v>176.01900000000001</v>
-      </c>
-      <c r="P46" s="25">
-        <v>154.41800000000001</v>
-      </c>
-      <c r="Q46" s="25">
-        <v>173.596</v>
-      </c>
-      <c r="R46" s="25">
-        <v>702.31100000000004</v>
-      </c>
-      <c r="S46" s="25">
-        <v>1517.9280000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90">
-        <f>F15+F23-F21-F19+F33+F68+F46+F48</f>
-        <v>2155.5680000000002</v>
-      </c>
-      <c r="G47" s="90">
-        <f>G15+G23-G21-G19+G33+G68+G46+G48</f>
-        <v>3224.5829999999996</v>
-      </c>
-      <c r="H47" s="90">
-        <f>H15+H23-H21-H19+H33+H68+H46</f>
-        <v>2492.3159999999998</v>
-      </c>
-      <c r="I47" s="90">
-        <f>I15+I23-I21-I19+I33+I68+I46</f>
-        <v>2602.0319999999997</v>
-      </c>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-    </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90">
-        <f>175*0.6</f>
-        <v>105</v>
-      </c>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-    </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90">
-        <f>G47-G48-G29+F29-G26+F26-G18+H18</f>
-        <v>2268.2089999999994</v>
-      </c>
-      <c r="H49" s="90">
-        <f>H47-H29+F29-H27-F27</f>
-        <v>2175.9359999999997</v>
-      </c>
-      <c r="I49" s="90">
-        <f>I47-I29-F29-I27-F27</f>
-        <v>2349.9239999999995</v>
-      </c>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-    </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90">
-        <f>G47-G49</f>
-        <v>956.37400000000025</v>
-      </c>
-      <c r="H50" s="90">
-        <f t="shared" ref="H50:I50" si="0">H47-H49</f>
-        <v>316.38000000000011</v>
-      </c>
-      <c r="I50" s="90">
-        <f t="shared" si="0"/>
-        <v>252.10800000000017</v>
-      </c>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-    </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="92"/>
-    </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-    </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="24">
-        <v>-0.73199999999999998</v>
-      </c>
-      <c r="G53" s="24">
-        <v>576.51800000000003</v>
-      </c>
-      <c r="H53" s="24">
-        <v>0.106</v>
-      </c>
-      <c r="I53" s="24">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="J53" s="24">
-        <v>0</v>
-      </c>
-      <c r="K53" s="24">
-        <v>0</v>
-      </c>
-      <c r="L53" s="24">
-        <v>0</v>
-      </c>
-      <c r="M53" s="24">
-        <v>0</v>
-      </c>
-      <c r="N53" s="24">
-        <v>0</v>
-      </c>
-      <c r="O53" s="24">
-        <v>0</v>
-      </c>
-      <c r="P53" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>0</v>
-      </c>
-      <c r="R53" s="24">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="S53" s="24">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="24">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24">
-        <v>149.97300000000001</v>
-      </c>
-      <c r="H54" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I54" s="24">
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
-        <v>0</v>
-      </c>
-      <c r="K54" s="24">
-        <v>0</v>
-      </c>
-      <c r="L54" s="24">
-        <v>0</v>
-      </c>
-      <c r="M54" s="24">
-        <v>0</v>
-      </c>
-      <c r="N54" s="24">
-        <v>0</v>
-      </c>
-      <c r="O54" s="24">
-        <v>0</v>
-      </c>
-      <c r="P54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>0</v>
-      </c>
-      <c r="R54" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S54" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="24">
-        <v>32.045999999999999</v>
-      </c>
-      <c r="G55" s="24">
-        <v>29.885000000000002</v>
-      </c>
-      <c r="H55" s="24">
-        <v>20.061</v>
-      </c>
-      <c r="I55" s="24">
-        <v>19.181000000000001</v>
-      </c>
-      <c r="J55" s="24">
-        <v>18.681000000000001</v>
-      </c>
-      <c r="K55" s="24">
-        <v>18.213000000000001</v>
-      </c>
-      <c r="L55" s="24">
-        <v>17.533999999999999</v>
-      </c>
-      <c r="M55" s="24">
-        <v>17.527999999999999</v>
-      </c>
-      <c r="N55" s="24">
-        <v>17.11</v>
-      </c>
-      <c r="O55" s="24">
-        <v>17.074999999999999</v>
-      </c>
-      <c r="P55" s="24">
-        <v>16.859000000000002</v>
-      </c>
-      <c r="Q55" s="24">
-        <v>16.908000000000001</v>
-      </c>
-      <c r="R55" s="24">
-        <v>93.67</v>
-      </c>
-      <c r="S55" s="24">
-        <v>179.15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="24">
-        <v>-8.0730000000000004</v>
-      </c>
-      <c r="G56" s="24">
-        <v>-6.1150000000000002</v>
-      </c>
-      <c r="H56" s="24">
-        <v>-3.4049999999999998</v>
-      </c>
-      <c r="I56" s="24">
-        <v>-3.9980000000000002</v>
-      </c>
-      <c r="J56" s="24">
-        <v>-2.9009999999999998</v>
-      </c>
-      <c r="K56" s="24">
-        <v>-2.379</v>
-      </c>
-      <c r="L56" s="24">
-        <v>-2.9540000000000002</v>
-      </c>
-      <c r="M56" s="24">
-        <v>-3.64</v>
-      </c>
-      <c r="N56" s="24">
-        <v>-4.3630000000000004</v>
-      </c>
-      <c r="O56" s="24">
-        <v>-5.194</v>
-      </c>
-      <c r="P56" s="24">
-        <v>-6.0990000000000002</v>
-      </c>
-      <c r="Q56" s="24">
-        <v>-7.0890000000000004</v>
-      </c>
-      <c r="R56" s="24">
-        <v>-15.637</v>
-      </c>
-      <c r="S56" s="24">
-        <v>-42.021999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="24">
-        <v>10.457000000000001</v>
-      </c>
-      <c r="G57" s="24">
-        <v>10.657999999999999</v>
-      </c>
-      <c r="H57" s="24">
-        <v>11.2</v>
-      </c>
-      <c r="I57" s="24">
-        <v>11.794</v>
-      </c>
-      <c r="J57" s="24">
-        <v>12.409000000000001</v>
-      </c>
-      <c r="K57" s="24">
-        <v>12.923999999999999</v>
-      </c>
-      <c r="L57" s="24">
-        <v>13.631</v>
-      </c>
-      <c r="M57" s="24">
-        <v>14.273</v>
-      </c>
-      <c r="N57" s="24">
-        <v>15.036</v>
-      </c>
-      <c r="O57" s="24">
-        <v>15.776</v>
-      </c>
-      <c r="P57" s="24">
-        <v>16.579000000000001</v>
-      </c>
-      <c r="Q57" s="24">
-        <v>17.369</v>
-      </c>
-      <c r="R57" s="24">
-        <v>61.957999999999998</v>
-      </c>
-      <c r="S57" s="24">
-        <v>140.99100000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="24">
-        <v>0</v>
-      </c>
-      <c r="G58" s="24">
-        <v>0</v>
-      </c>
-      <c r="H58" s="24">
-        <v>2.57</v>
-      </c>
-      <c r="I58" s="24">
-        <v>4.91</v>
-      </c>
-      <c r="J58" s="24">
-        <v>4.29</v>
-      </c>
-      <c r="K58" s="24">
-        <v>4.68</v>
-      </c>
-      <c r="L58" s="24">
-        <v>5.23</v>
-      </c>
-      <c r="M58" s="24">
-        <v>5.44</v>
-      </c>
-      <c r="N58" s="24">
-        <v>5.63</v>
-      </c>
-      <c r="O58" s="24">
-        <v>5.9</v>
-      </c>
-      <c r="P58" s="24">
-        <v>6.23</v>
-      </c>
-      <c r="Q58" s="24">
-        <v>6.91</v>
-      </c>
-      <c r="R58" s="24">
-        <v>21.68</v>
-      </c>
-      <c r="S58" s="24">
-        <v>51.79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="24">
-        <v>33.152000000000001</v>
-      </c>
-      <c r="G59" s="24">
-        <v>93.71</v>
-      </c>
-      <c r="H59" s="24">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="I59" s="24">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="J59" s="24">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="K59" s="24">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="L59" s="24">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="M59" s="24">
-        <v>2.984</v>
-      </c>
-      <c r="N59" s="24">
-        <v>3.907</v>
-      </c>
-      <c r="O59" s="24">
-        <v>4.694</v>
-      </c>
-      <c r="P59" s="24">
-        <v>5.0339999999999998</v>
-      </c>
-      <c r="Q59" s="24">
-        <v>5.3890000000000002</v>
-      </c>
-      <c r="R59" s="24">
-        <v>7.8209999999999997</v>
-      </c>
-      <c r="S59" s="24">
-        <v>29.829000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="24">
-        <v>58.710999999999999</v>
-      </c>
-      <c r="G60" s="24">
-        <v>114.73099999999999</v>
-      </c>
-      <c r="H60" s="24">
-        <v>68.715000000000003</v>
-      </c>
-      <c r="I60" s="24">
-        <v>71.436999999999998</v>
-      </c>
-      <c r="J60" s="24">
-        <v>69.662999999999997</v>
-      </c>
-      <c r="K60" s="24">
-        <v>69.725999999999999</v>
-      </c>
-      <c r="L60" s="24">
-        <v>70.003</v>
-      </c>
-      <c r="M60" s="24">
-        <v>70.840999999999994</v>
-      </c>
-      <c r="N60" s="24">
-        <v>69.992000000000004</v>
-      </c>
-      <c r="O60" s="24">
-        <v>70.025000000000006</v>
-      </c>
-      <c r="P60" s="24">
-        <v>69.733000000000004</v>
-      </c>
-      <c r="Q60" s="24">
-        <v>67.626000000000005</v>
-      </c>
-      <c r="R60" s="24">
-        <v>349.54399999999998</v>
-      </c>
-      <c r="S60" s="24">
-        <v>697.76099999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S61" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="24">
-        <v>125.56100000000001</v>
-      </c>
-      <c r="G62" s="24">
-        <v>969.36</v>
-      </c>
-      <c r="H62" s="24">
-        <v>100.455</v>
-      </c>
-      <c r="I62" s="24">
-        <v>104.577</v>
-      </c>
-      <c r="J62" s="24">
-        <v>103.595</v>
-      </c>
-      <c r="K62" s="24">
-        <v>104.943</v>
-      </c>
-      <c r="L62" s="24">
-        <v>105.664</v>
-      </c>
-      <c r="M62" s="24">
-        <v>107.426</v>
-      </c>
-      <c r="N62" s="24">
-        <v>107.312</v>
-      </c>
-      <c r="O62" s="24">
-        <v>108.276</v>
-      </c>
-      <c r="P62" s="24">
-        <v>108.336</v>
-      </c>
-      <c r="Q62" s="24">
-        <v>107.113</v>
-      </c>
-      <c r="R62" s="24">
-        <v>519.23400000000004</v>
-      </c>
-      <c r="S62" s="24">
-        <v>1057.6969999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-    </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-    </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="25">
-        <v>3009.8150000000001</v>
-      </c>
-      <c r="G65" s="25">
-        <v>4886.0630000000001</v>
-      </c>
-      <c r="H65" s="25">
-        <v>3471.8890000000001</v>
-      </c>
-      <c r="I65" s="25">
-        <v>3587.0010000000002</v>
-      </c>
-      <c r="J65" s="25">
-        <v>3643.232</v>
-      </c>
-      <c r="K65" s="25">
-        <v>3751.9870000000001</v>
-      </c>
-      <c r="L65" s="25">
-        <v>4008.431</v>
-      </c>
-      <c r="M65" s="25">
-        <v>4221.1710000000003</v>
-      </c>
-      <c r="N65" s="25">
-        <v>4414.2790000000005</v>
-      </c>
-      <c r="O65" s="25">
-        <v>4731.8140000000003</v>
-      </c>
-      <c r="P65" s="25">
-        <v>4776.241</v>
-      </c>
-      <c r="Q65" s="25">
-        <v>5106.8760000000002</v>
-      </c>
-      <c r="R65" s="25">
-        <v>18462.54</v>
-      </c>
-      <c r="S65" s="25">
-        <v>41712.921000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-    </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-    </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="25">
-        <v>-131.53</v>
-      </c>
-      <c r="G68" s="25">
-        <v>-140.73599999999999</v>
-      </c>
-      <c r="H68" s="25">
-        <v>-146.95599999999999</v>
-      </c>
-      <c r="I68" s="25">
-        <v>-159.81100000000001</v>
-      </c>
-      <c r="J68" s="25">
-        <v>-176.108</v>
-      </c>
-      <c r="K68" s="25">
-        <v>-191.893</v>
-      </c>
-      <c r="L68" s="25">
-        <v>-206.78899999999999</v>
-      </c>
-      <c r="M68" s="25">
-        <v>-221.84800000000001</v>
-      </c>
-      <c r="N68" s="25">
-        <v>-239.398</v>
-      </c>
-      <c r="O68" s="25">
-        <v>-256.38799999999998</v>
-      </c>
-      <c r="P68" s="25">
-        <v>-276.03899999999999</v>
-      </c>
-      <c r="Q68" s="25">
-        <v>-290.81</v>
-      </c>
-      <c r="R68" s="25">
-        <v>-881.55700000000002</v>
-      </c>
-      <c r="S68" s="25">
-        <v>-2166.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-    </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-    </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="25">
-        <v>-36.439</v>
-      </c>
-      <c r="G71" s="25">
-        <v>-41.506</v>
-      </c>
-      <c r="H71" s="25">
-        <v>-45.792000000000002</v>
-      </c>
-      <c r="I71" s="25">
-        <v>-47.43</v>
-      </c>
-      <c r="J71" s="25">
-        <v>-49.198</v>
-      </c>
-      <c r="K71" s="25">
-        <v>-51.003999999999998</v>
-      </c>
-      <c r="L71" s="25">
-        <v>-52.83</v>
-      </c>
-      <c r="M71" s="25">
-        <v>-54.661999999999999</v>
-      </c>
-      <c r="N71" s="25">
-        <v>-56.475999999999999</v>
-      </c>
-      <c r="O71" s="25">
-        <v>-58.28</v>
-      </c>
-      <c r="P71" s="25">
-        <v>-60.107999999999997</v>
-      </c>
-      <c r="Q71" s="25">
-        <v>-61.978000000000002</v>
-      </c>
-      <c r="R71" s="25">
-        <v>-246.25399999999999</v>
-      </c>
-      <c r="S71" s="25">
-        <v>-537.75800000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="25">
-        <v>-20.640999999999998</v>
-      </c>
-      <c r="G72" s="25">
-        <v>-21.596</v>
-      </c>
-      <c r="H72" s="25">
-        <v>-25</v>
-      </c>
-      <c r="I72" s="25">
-        <v>-25.242999999999999</v>
-      </c>
-      <c r="J72" s="25">
-        <v>-25.503</v>
-      </c>
-      <c r="K72" s="25">
-        <v>-25.806999999999999</v>
-      </c>
-      <c r="L72" s="25">
-        <v>-26.143999999999998</v>
-      </c>
-      <c r="M72" s="25">
-        <v>-26.521000000000001</v>
-      </c>
-      <c r="N72" s="25">
-        <v>-26.937999999999999</v>
-      </c>
-      <c r="O72" s="25">
-        <v>-27.417000000000002</v>
-      </c>
-      <c r="P72" s="25">
-        <v>-27.948</v>
-      </c>
-      <c r="Q72" s="25">
-        <v>-28.527999999999999</v>
-      </c>
-      <c r="R72" s="25">
-        <v>-127.697</v>
-      </c>
-      <c r="S72" s="25">
-        <v>-265.04899999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="25">
-        <v>-18.055</v>
-      </c>
-      <c r="G73" s="25">
-        <v>-18.274999999999999</v>
-      </c>
-      <c r="H73" s="25">
-        <v>-18.619</v>
-      </c>
-      <c r="I73" s="25">
-        <v>-19.074999999999999</v>
-      </c>
-      <c r="J73" s="25">
-        <v>-19.535</v>
-      </c>
-      <c r="K73" s="25">
-        <v>-20.032</v>
-      </c>
-      <c r="L73" s="25">
-        <v>-20.57</v>
-      </c>
-      <c r="M73" s="25">
-        <v>-21.15</v>
-      </c>
-      <c r="N73" s="25">
-        <v>-21.771999999999998</v>
-      </c>
-      <c r="O73" s="25">
-        <v>-22.434999999999999</v>
-      </c>
-      <c r="P73" s="25">
-        <v>-23.13</v>
-      </c>
-      <c r="Q73" s="25">
-        <v>-23.853000000000002</v>
-      </c>
-      <c r="R73" s="25">
-        <v>-97.831000000000003</v>
-      </c>
-      <c r="S73" s="25">
-        <v>-210.17099999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R74" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S74" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="234" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="235"/>
-      <c r="F75" s="25">
-        <v>-75.135000000000005</v>
-      </c>
-      <c r="G75" s="25">
-        <v>-81.376999999999995</v>
-      </c>
-      <c r="H75" s="25">
-        <v>-89.411000000000001</v>
-      </c>
-      <c r="I75" s="25">
-        <v>-91.748000000000005</v>
-      </c>
-      <c r="J75" s="25">
-        <v>-94.236000000000004</v>
-      </c>
-      <c r="K75" s="25">
-        <v>-96.843000000000004</v>
-      </c>
-      <c r="L75" s="25">
-        <v>-99.543999999999997</v>
-      </c>
-      <c r="M75" s="25">
-        <v>-102.333</v>
-      </c>
-      <c r="N75" s="25">
-        <v>-105.18600000000001</v>
-      </c>
-      <c r="O75" s="25">
-        <v>-108.13200000000001</v>
-      </c>
-      <c r="P75" s="25">
-        <v>-111.18600000000001</v>
-      </c>
-      <c r="Q75" s="25">
-        <v>-114.35899999999999</v>
-      </c>
-      <c r="R75" s="25">
-        <v>-471.78199999999998</v>
-      </c>
-      <c r="S75" s="25">
-        <v>-1012.978</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-    </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="25">
-        <v>-14.331</v>
-      </c>
-      <c r="G77" s="25">
-        <v>-10.007999999999999</v>
-      </c>
-      <c r="H77" s="25">
-        <v>-9.9969999999999999</v>
-      </c>
-      <c r="I77" s="25">
-        <v>-11.169</v>
-      </c>
-      <c r="J77" s="25">
-        <v>-10.786</v>
-      </c>
-      <c r="K77" s="25">
-        <v>-11.792</v>
-      </c>
-      <c r="L77" s="25">
-        <v>-11.88</v>
-      </c>
-      <c r="M77" s="25">
-        <v>-12.057</v>
-      </c>
-      <c r="N77" s="25">
-        <v>-12.396000000000001</v>
-      </c>
-      <c r="O77" s="25">
-        <v>-12.348000000000001</v>
-      </c>
-      <c r="P77" s="25">
-        <v>-13.318</v>
-      </c>
-      <c r="Q77" s="25">
-        <v>-14.282</v>
-      </c>
-      <c r="R77" s="25">
-        <v>-55.624000000000002</v>
-      </c>
-      <c r="S77" s="25">
-        <v>-120.02500000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="25">
-        <v>-7.7629999999999999</v>
-      </c>
-      <c r="G78" s="25">
-        <v>-8.0500000000000007</v>
-      </c>
-      <c r="H78" s="25">
-        <v>-8.6219999999999999</v>
-      </c>
-      <c r="I78" s="25">
-        <v>-9.0790000000000006</v>
-      </c>
-      <c r="J78" s="25">
-        <v>-9.5329999999999995</v>
-      </c>
-      <c r="K78" s="25">
-        <v>-10.01</v>
-      </c>
-      <c r="L78" s="25">
-        <v>-10.51</v>
-      </c>
-      <c r="M78" s="25">
-        <v>-11.035</v>
-      </c>
-      <c r="N78" s="25">
-        <v>-11.587</v>
-      </c>
-      <c r="O78" s="25">
-        <v>-12.167</v>
-      </c>
-      <c r="P78" s="25">
-        <v>-12.775</v>
-      </c>
-      <c r="Q78" s="25">
-        <v>-13.414</v>
-      </c>
-      <c r="R78" s="25">
-        <v>-47.753999999999998</v>
-      </c>
-      <c r="S78" s="25">
-        <v>-108.732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="25">
-        <v>-19.181999999999999</v>
-      </c>
-      <c r="G79" s="25">
-        <v>-4.2</v>
-      </c>
-      <c r="H79" s="25">
-        <v>0</v>
-      </c>
-      <c r="I79" s="25">
-        <v>0</v>
-      </c>
-      <c r="J79" s="25">
-        <v>0</v>
-      </c>
-      <c r="K79" s="25">
-        <v>0</v>
-      </c>
-      <c r="L79" s="25">
-        <v>0</v>
-      </c>
-      <c r="M79" s="25">
-        <v>0</v>
-      </c>
-      <c r="N79" s="25">
-        <v>0</v>
-      </c>
-      <c r="O79" s="25">
-        <v>0</v>
-      </c>
-      <c r="P79" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="25">
-        <v>0</v>
-      </c>
-      <c r="R79" s="25">
-        <v>0</v>
-      </c>
-      <c r="S79" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="25">
-        <v>-27.701000000000001</v>
-      </c>
-      <c r="G80" s="25">
-        <v>-24.986000000000001</v>
-      </c>
-      <c r="H80" s="25">
-        <v>-33.298999999999999</v>
-      </c>
-      <c r="I80" s="25">
-        <v>-40.917999999999999</v>
-      </c>
-      <c r="J80" s="25">
-        <v>-39.795999999999999</v>
-      </c>
-      <c r="K80" s="25">
-        <v>-30.850999999999999</v>
-      </c>
-      <c r="L80" s="25">
-        <v>-39.113</v>
-      </c>
-      <c r="M80" s="25">
-        <v>-31.596</v>
-      </c>
-      <c r="N80" s="25">
-        <v>-31.497</v>
-      </c>
-      <c r="O80" s="25">
-        <v>-28.585000000000001</v>
-      </c>
-      <c r="P80" s="25">
-        <v>-28.823</v>
-      </c>
-      <c r="Q80" s="29">
-        <v>-22.437000000000001</v>
-      </c>
-      <c r="R80" s="25">
-        <v>-183.977</v>
-      </c>
-      <c r="S80" s="25">
-        <v>-326.91500000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R81" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S81" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="25">
-        <v>-275.642</v>
-      </c>
-      <c r="G82" s="25">
-        <v>-269.35700000000003</v>
-      </c>
-      <c r="H82" s="25">
-        <v>-288.28500000000003</v>
-      </c>
-      <c r="I82" s="25">
-        <v>-312.72500000000002</v>
-      </c>
-      <c r="J82" s="25">
-        <v>-330.459</v>
-      </c>
-      <c r="K82" s="25">
-        <v>-341.38900000000001</v>
-      </c>
-      <c r="L82" s="25">
-        <v>-367.83600000000001</v>
-      </c>
-      <c r="M82" s="25">
-        <v>-378.86900000000003</v>
-      </c>
-      <c r="N82" s="25">
-        <v>-400.06400000000002</v>
-      </c>
-      <c r="O82" s="25">
-        <v>-417.62</v>
-      </c>
-      <c r="P82" s="25">
-        <v>-442.14100000000002</v>
-      </c>
-      <c r="Q82" s="25">
-        <v>-455.30200000000002</v>
-      </c>
-      <c r="R82" s="25">
-        <v>-1640.694</v>
-      </c>
-      <c r="S82" s="25">
-        <v>-3734.69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-    </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-    </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F85" s="25">
-        <v>2734.1729999999998</v>
-      </c>
-      <c r="G85" s="25">
-        <v>4616.7060000000001</v>
-      </c>
-      <c r="H85" s="25">
-        <v>3183.6039999999998</v>
-      </c>
-      <c r="I85" s="25">
-        <v>3274.2759999999998</v>
-      </c>
-      <c r="J85" s="25">
-        <v>3312.7730000000001</v>
-      </c>
-      <c r="K85" s="25">
-        <v>3410.598</v>
-      </c>
-      <c r="L85" s="25">
-        <v>3640.5949999999998</v>
-      </c>
-      <c r="M85" s="25">
-        <v>3842.3020000000001</v>
-      </c>
-      <c r="N85" s="25">
-        <v>4014.2150000000001</v>
-      </c>
-      <c r="O85" s="25">
-        <v>4314.1940000000004</v>
-      </c>
-      <c r="P85" s="25">
-        <v>4334.1000000000004</v>
-      </c>
-      <c r="Q85" s="25">
-        <v>4651.5739999999996</v>
-      </c>
-      <c r="R85" s="25">
-        <v>16821.846000000001</v>
-      </c>
-      <c r="S85" s="25">
-        <v>37978.231</v>
-      </c>
-      <c r="T85" s="25"/>
-    </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-    </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-    </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-      <c r="R88" s="23"/>
-      <c r="S88" s="23"/>
-    </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="25">
-        <v>643.87599999999998</v>
-      </c>
-      <c r="G89" s="25">
-        <v>721.33199999999999</v>
-      </c>
-      <c r="H89" s="25">
-        <v>662.77700000000004</v>
-      </c>
-      <c r="I89" s="25">
-        <v>813.46100000000001</v>
-      </c>
-      <c r="J89" s="25">
-        <v>836.99199999999996</v>
-      </c>
-      <c r="K89" s="25">
-        <v>844.35500000000002</v>
-      </c>
-      <c r="L89" s="25">
-        <v>951.00599999999997</v>
-      </c>
-      <c r="M89" s="25">
-        <v>1017.881</v>
-      </c>
-      <c r="N89" s="25">
-        <v>1088.567</v>
-      </c>
-      <c r="O89" s="25">
-        <v>1234.4010000000001</v>
-      </c>
-      <c r="P89" s="25">
-        <v>1173.8789999999999</v>
-      </c>
-      <c r="Q89" s="25">
-        <v>1320.4839999999999</v>
-      </c>
-      <c r="R89" s="25">
-        <v>4108.5910000000003</v>
-      </c>
-      <c r="S89" s="25">
-        <v>9943.8029999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="23">
-        <v>1126.519</v>
-      </c>
-      <c r="G90" s="23">
-        <v>1258.6759999999999</v>
-      </c>
-      <c r="H90" s="23">
-        <v>1272.1010000000001</v>
-      </c>
-      <c r="I90" s="23">
-        <v>1399.453</v>
-      </c>
-      <c r="J90" s="23">
-        <v>1401.7059999999999</v>
-      </c>
-      <c r="K90" s="23">
-        <v>1433.2070000000001</v>
-      </c>
-      <c r="L90" s="23">
-        <v>1569.451</v>
-      </c>
-      <c r="M90" s="23">
-        <v>1667.663</v>
-      </c>
-      <c r="N90" s="23">
-        <v>1771.43</v>
-      </c>
-      <c r="O90" s="23">
-        <v>1952.9970000000001</v>
-      </c>
-      <c r="P90" s="23">
-        <v>1930.9259999999999</v>
-      </c>
-      <c r="Q90" s="23">
-        <v>2120.0050000000001</v>
-      </c>
-      <c r="R90" s="23">
-        <v>7075.9179999999997</v>
-      </c>
-      <c r="S90" s="23">
-        <v>16518.938999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="D75:E75"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A0AC9F93-CD82-4A1A-AB7B-6DE6598B6904}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54378B26-3465-4849-BBE3-B7CDFE6219FF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
@@ -11664,254 +7987,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="86" t="s">
-        <v>174</v>
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" t="s">
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" t="s">
-        <v>264</v>
+      <c r="A2" s="199">
+        <v>44104</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B7">TRANSPOSE('add-ons calculations'!F26:K26)</f>
+        <v>39.462292557841863</v>
+      </c>
+      <c r="C2">
+        <f t="array" ref="C2:C7">TRANSPOSE('add-ons calculations'!F32:K32)</f>
+        <v>319.52718516136935</v>
+      </c>
+      <c r="D2">
+        <f t="array" ref="D2:D7">TRANSPOSE('add-ons calculations'!F39:K39)</f>
+        <v>-54.815170597607903</v>
+      </c>
+      <c r="E2">
+        <f t="array" ref="E2:E7">TRANSPOSE('add-ons calculations'!F46:K46)</f>
+        <v>31.783553594610652</v>
+      </c>
+      <c r="F2">
+        <f t="array" ref="F2:F7">TRANSPOSE('add-ons calculations'!F52:K52)</f>
+        <v>-22.650443086290124</v>
+      </c>
+      <c r="G2">
+        <f t="array" ref="G2:G7">TRANSPOSE('add-ons calculations'!F58:K58)</f>
+        <v>-1490.3928233499519</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:H7">TRANSPOSE('add-ons calculations'!F64:K64)</f>
+        <v>119.9723883864624</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2:I7">TRANSPOSE('add-ons calculations'!F70:K70)</f>
+        <v>-534.23279446079891</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="199">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B3">
-        <f t="array" ref="B3:B8">TRANSPOSE('add-ons calculations'!F26:K26)</f>
-        <v>39.462292557841863</v>
+        <v>33.752562651135861</v>
       </c>
       <c r="C3">
-        <f t="array" ref="C3:C8">TRANSPOSE('add-ons calculations'!F32:K32)</f>
-        <v>319.52718516136935</v>
+        <v>32.387725484069904</v>
       </c>
       <c r="D3">
-        <f t="array" ref="D3:D8">TRANSPOSE('add-ons calculations'!F39:K39)</f>
-        <v>-54.815170597607903</v>
+        <v>-87.559117429293565</v>
       </c>
       <c r="E3">
-        <f t="array" ref="E3:E8">TRANSPOSE('add-ons calculations'!F46:K46)</f>
-        <v>31.783553594610652</v>
+        <v>30.136779405365168</v>
       </c>
       <c r="F3">
-        <f t="array" ref="F3:F8">TRANSPOSE('add-ons calculations'!F52:K52)</f>
-        <v>-22.650443086290124</v>
+        <v>-5.5690779406388629</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3:G8">TRANSPOSE('add-ons calculations'!F58:K58)</f>
-        <v>-1490.3928233499519</v>
+        <v>-1546.1244350119828</v>
       </c>
       <c r="H3">
-        <f t="array" ref="H3:H8">TRANSPOSE('add-ons calculations'!F64:K64)</f>
-        <v>119.9723883864624</v>
+        <v>-715.671330367628</v>
       </c>
       <c r="I3">
-        <f t="array" ref="I3:I8">TRANSPOSE('add-ons calculations'!F70:K70)</f>
-        <v>-534.23279446079891</v>
+        <v>-528.31830039695672</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="199">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="B4">
-        <v>33.752562651135861</v>
+        <v>28.042832744429859</v>
       </c>
       <c r="C4">
-        <v>32.387725484069904</v>
+        <v>38.986163426235919</v>
       </c>
       <c r="D4">
-        <v>-87.559117429293565</v>
+        <v>-114.78216748958812</v>
       </c>
       <c r="E4">
-        <v>30.136779405365168</v>
+        <v>33.499793843283065</v>
       </c>
       <c r="F4">
-        <v>-5.5690779406388629</v>
+        <v>-5.8378188398357906</v>
       </c>
       <c r="G4">
-        <v>-1546.1244350119828</v>
+        <v>-1429.5124721358266</v>
       </c>
       <c r="H4">
-        <v>-715.671330367628</v>
+        <v>-989.9350770641297</v>
       </c>
       <c r="I4">
-        <v>-528.31830039695672</v>
+        <v>-530.05393675917412</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="199">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B5">
-        <v>28.042832744429859</v>
+        <v>22.333102837723857</v>
       </c>
       <c r="C5">
-        <v>38.986163426235919</v>
+        <v>44.425012258099798</v>
       </c>
       <c r="D5">
-        <v>-114.78216748958812</v>
+        <v>-132.92274336902369</v>
       </c>
       <c r="E5">
-        <v>33.499793843283065</v>
+        <v>34.44832771621541</v>
       </c>
       <c r="F5">
-        <v>-5.8378188398357906</v>
+        <v>7.1850671927181793</v>
       </c>
       <c r="G5">
-        <v>-1429.5124721358266</v>
+        <v>-1112.1751095777429</v>
       </c>
       <c r="H5">
-        <v>-989.9350770641297</v>
+        <v>-1006.02285823899</v>
       </c>
       <c r="I5">
-        <v>-530.05393675917412</v>
+        <v>-533.51455138371489</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="199">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B6">
-        <v>22.333102837723857</v>
+        <v>16.623372931017855</v>
       </c>
       <c r="C6">
-        <v>44.425012258099798</v>
+        <v>21.600314889828724</v>
       </c>
       <c r="D6">
-        <v>-132.92274336902369</v>
+        <v>-155.12809039313743</v>
       </c>
       <c r="E6">
-        <v>34.44832771621541</v>
+        <v>35.547717028557656</v>
       </c>
       <c r="F6">
-        <v>7.1850671927181793</v>
+        <v>9.9043176243060316</v>
       </c>
       <c r="G6">
-        <v>-1112.1751095777429</v>
+        <v>-899.73209858561381</v>
       </c>
       <c r="H6">
-        <v>-1006.02285823899</v>
+        <v>-1010.3045806064399</v>
       </c>
       <c r="I6">
-        <v>-533.51455138371489</v>
+        <v>-519.94180369135347</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="199">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B7">
-        <v>16.623372931017855</v>
+        <v>18.339958208923861</v>
       </c>
       <c r="C7">
-        <v>21.600314889828724</v>
+        <v>-16.70485610198341</v>
       </c>
       <c r="D7">
-        <v>-155.12809039313743</v>
+        <v>-161.58289086722652</v>
       </c>
       <c r="E7">
-        <v>35.547717028557656</v>
+        <v>36.308251718988402</v>
       </c>
       <c r="F7">
-        <v>9.9043176243060316</v>
+        <v>53.426156483809564</v>
       </c>
       <c r="G7">
-        <v>-899.73209858561381</v>
+        <v>-994.39312881107412</v>
       </c>
       <c r="H7">
-        <v>-1010.3045806064399</v>
+        <v>-1014.9200171346299</v>
       </c>
       <c r="I7">
-        <v>-519.94180369135347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="199">
-        <v>44561</v>
-      </c>
-      <c r="B8">
-        <v>18.339958208923861</v>
-      </c>
-      <c r="C8">
-        <v>-16.70485610198341</v>
-      </c>
-      <c r="D8">
-        <v>-161.58289086722652</v>
-      </c>
-      <c r="E8">
-        <v>36.308251718988402</v>
-      </c>
-      <c r="F8">
-        <v>53.426156483809564</v>
-      </c>
-      <c r="G8">
-        <v>-994.39312881107412</v>
-      </c>
-      <c r="H8">
-        <v>-1014.9200171346299</v>
-      </c>
-      <c r="I8">
         <v>-591.53617329058363</v>
       </c>
     </row>
@@ -11920,7 +8217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59415D66-99E1-48A7-908E-6DD000577D4F}">
   <dimension ref="A2:P28"/>
   <sheetViews>
@@ -12533,7 +8830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87327C4-CC87-4828-867B-1480BE7C2A8D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -12895,7 +9192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446ECC41-09B2-4226-9DFF-DDF76E08500C}">
   <dimension ref="A1:AF82"/>
   <sheetViews>
@@ -14843,7 +11140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:W38"/>
   <sheetViews>
@@ -15861,7 +12158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A2277-50A8-4EC7-9AFE-96BB2900F5B9}">
   <dimension ref="A1:T55"/>
   <sheetViews>
@@ -15962,22 +12259,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-      <c r="N6" s="233"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="233"/>
-      <c r="R6" s="233"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="230" t="s">
@@ -16713,21 +13010,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="231" t="s">
+      <c r="H27" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="231"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17043,21 +13340,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="232" t="s">
+      <c r="F37" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="232"/>
-      <c r="L37" s="232"/>
-      <c r="M37" s="232"/>
-      <c r="N37" s="232"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="232"/>
-      <c r="Q37" s="232"/>
-      <c r="R37" s="232"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="233"/>
+      <c r="I37" s="233"/>
+      <c r="J37" s="233"/>
+      <c r="K37" s="233"/>
+      <c r="L37" s="233"/>
+      <c r="M37" s="233"/>
+      <c r="N37" s="233"/>
+      <c r="O37" s="233"/>
+      <c r="P37" s="233"/>
+      <c r="Q37" s="233"/>
+      <c r="R37" s="233"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17373,21 +13670,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="231" t="s">
+      <c r="F48" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="231"/>
-      <c r="H48" s="231"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="231"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="231"/>
-      <c r="Q48" s="231"/>
-      <c r="R48" s="231"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="232"/>
+      <c r="N48" s="232"/>
+      <c r="O48" s="232"/>
+      <c r="P48" s="232"/>
+      <c r="Q48" s="232"/>
+      <c r="R48" s="232"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -17699,12 +13996,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17713,27 +14004,3682 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010B404F-448D-4E36-A88E-C07F48F0DCD8}">
+  <dimension ref="A1:X91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="212" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="214" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+    </row>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="215" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="216"/>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2020</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2021</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2022</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2023</v>
+      </c>
+      <c r="K10" s="21">
+        <v>2024</v>
+      </c>
+      <c r="L10" s="21">
+        <v>2025</v>
+      </c>
+      <c r="M10" s="21">
+        <v>2026</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2027</v>
+      </c>
+      <c r="O10" s="21">
+        <v>2028</v>
+      </c>
+      <c r="P10" s="21">
+        <v>2029</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>2030</v>
+      </c>
+      <c r="R10" s="22">
+        <v>2025</v>
+      </c>
+      <c r="S10" s="22">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+    </row>
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="25">
+        <v>893.31600000000003</v>
+      </c>
+      <c r="G12" s="25">
+        <v>945.50099999999998</v>
+      </c>
+      <c r="H12" s="25">
+        <v>992.75099999999998</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1045.5989999999999</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1104.202</v>
+      </c>
+      <c r="K12" s="25">
+        <v>1168.675</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1237.8699999999999</v>
+      </c>
+      <c r="M12" s="25">
+        <v>1309.1790000000001</v>
+      </c>
+      <c r="N12" s="25">
+        <v>1381.18</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1463.298</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1544.8389999999999</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>1628.78</v>
+      </c>
+      <c r="R12" s="25">
+        <v>5549.0969999999998</v>
+      </c>
+      <c r="S12" s="25">
+        <v>12876.373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="25">
+        <v>145.173</v>
+      </c>
+      <c r="G13" s="25">
+        <v>145.40199999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>149.36199999999999</v>
+      </c>
+      <c r="I13" s="25">
+        <v>155.83199999999999</v>
+      </c>
+      <c r="J13" s="25">
+        <v>163.71299999999999</v>
+      </c>
+      <c r="K13" s="25">
+        <v>172.196</v>
+      </c>
+      <c r="L13" s="25">
+        <v>179.38399999999999</v>
+      </c>
+      <c r="M13" s="25">
+        <v>187.07300000000001</v>
+      </c>
+      <c r="N13" s="25">
+        <v>194.27600000000001</v>
+      </c>
+      <c r="O13" s="25">
+        <v>196.48699999999999</v>
+      </c>
+      <c r="P13" s="25">
+        <v>200.899</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>205.81</v>
+      </c>
+      <c r="R13" s="25">
+        <v>820.48699999999997</v>
+      </c>
+      <c r="S13" s="25">
+        <v>1805.0319999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="25">
+        <v>1038.489</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1090.903</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1142.1130000000001</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1201.431</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1267.915</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1340.8710000000001</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1417.2539999999999</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1496.252</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1575.4559999999999</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1659.7850000000001</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1745.7380000000001</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>1834.59</v>
+      </c>
+      <c r="R15" s="25">
+        <v>6369.5839999999998</v>
+      </c>
+      <c r="S15" s="25">
+        <v>14681.405000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="25">
+        <v>775.40599999999995</v>
+      </c>
+      <c r="G18" s="25">
+        <v>862.06799999999998</v>
+      </c>
+      <c r="H18" s="25">
+        <v>809.73299999999995</v>
+      </c>
+      <c r="I18" s="25">
+        <v>973.27200000000005</v>
+      </c>
+      <c r="J18" s="25">
+        <v>1013.1</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1036.248</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1157.7950000000001</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1239.729</v>
+      </c>
+      <c r="N18" s="25">
+        <v>1327.9649999999999</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1490.789</v>
+      </c>
+      <c r="P18" s="25">
+        <v>1449.9179999999999</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>1611.2940000000001</v>
+      </c>
+      <c r="R18" s="25">
+        <v>4990.1480000000001</v>
+      </c>
+      <c r="S18" s="25">
+        <v>12109.843000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25">
+        <v>409.42099999999999</v>
+      </c>
+      <c r="G19" s="25">
+        <v>466.24400000000003</v>
+      </c>
+      <c r="H19" s="25">
+        <v>537.41499999999996</v>
+      </c>
+      <c r="I19" s="25">
+        <v>516.01800000000003</v>
+      </c>
+      <c r="J19" s="25">
+        <v>494.83100000000002</v>
+      </c>
+      <c r="K19" s="25">
+        <v>517.13499999999999</v>
+      </c>
+      <c r="L19" s="25">
+        <v>545.38900000000001</v>
+      </c>
+      <c r="M19" s="25">
+        <v>574.79</v>
+      </c>
+      <c r="N19" s="25">
+        <v>605.32899999999995</v>
+      </c>
+      <c r="O19" s="25">
+        <v>637.02200000000005</v>
+      </c>
+      <c r="P19" s="25">
+        <v>670.57799999999997</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>707.21</v>
+      </c>
+      <c r="R19" s="25">
+        <v>2610.788</v>
+      </c>
+      <c r="S19" s="25">
+        <v>5805.7169999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="25">
+        <v>55.533000000000001</v>
+      </c>
+      <c r="G20" s="25">
+        <v>54.094999999999999</v>
+      </c>
+      <c r="H20" s="25">
+        <v>56.356999999999999</v>
+      </c>
+      <c r="I20" s="25">
+        <v>54.631999999999998</v>
+      </c>
+      <c r="J20" s="25">
+        <v>54.654000000000003</v>
+      </c>
+      <c r="K20" s="25">
+        <v>55.994</v>
+      </c>
+      <c r="L20" s="25">
+        <v>56.795999999999999</v>
+      </c>
+      <c r="M20" s="25">
+        <v>58.15</v>
+      </c>
+      <c r="N20" s="25">
+        <v>60.082000000000001</v>
+      </c>
+      <c r="O20" s="25">
+        <v>63.768999999999998</v>
+      </c>
+      <c r="P20" s="25">
+        <v>67.947000000000003</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>72.968000000000004</v>
+      </c>
+      <c r="R20" s="25">
+        <v>278.43299999999999</v>
+      </c>
+      <c r="S20" s="25">
+        <v>601.34900000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25">
+        <v>17.689</v>
+      </c>
+      <c r="G21" s="25">
+        <v>17.004999999999999</v>
+      </c>
+      <c r="H21" s="25">
+        <v>15.552</v>
+      </c>
+      <c r="I21" s="25">
+        <v>15.342000000000001</v>
+      </c>
+      <c r="J21" s="25">
+        <v>15.228999999999999</v>
+      </c>
+      <c r="K21" s="25">
+        <v>15.723000000000001</v>
+      </c>
+      <c r="L21" s="25">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="M21" s="25">
+        <v>16.841999999999999</v>
+      </c>
+      <c r="N21" s="25">
+        <v>17.452000000000002</v>
+      </c>
+      <c r="O21" s="25">
+        <v>17.805</v>
+      </c>
+      <c r="P21" s="25">
+        <v>18.521999999999998</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>19.343</v>
+      </c>
+      <c r="R21" s="25">
+        <v>78.105999999999995</v>
+      </c>
+      <c r="S21" s="25">
+        <v>168.07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="25">
+        <v>1258.049</v>
+      </c>
+      <c r="G23" s="25">
+        <v>1399.412</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1419.057</v>
+      </c>
+      <c r="I23" s="25">
+        <v>1559.2639999999999</v>
+      </c>
+      <c r="J23" s="25">
+        <v>1577.8140000000001</v>
+      </c>
+      <c r="K23" s="25">
+        <v>1625.1</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1776.24</v>
+      </c>
+      <c r="M23" s="25">
+        <v>1889.511</v>
+      </c>
+      <c r="N23" s="25">
+        <v>2010.828</v>
+      </c>
+      <c r="O23" s="25">
+        <v>2209.3850000000002</v>
+      </c>
+      <c r="P23" s="25">
+        <v>2206.9650000000001</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>2410.8150000000001</v>
+      </c>
+      <c r="R23" s="25">
+        <v>7957.4750000000004</v>
+      </c>
+      <c r="S23" s="25">
+        <v>18684.978999999999</v>
+      </c>
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="23">
+        <f>F23+F68</f>
+        <v>1126.519</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="25">
+        <v>99.244</v>
+      </c>
+      <c r="G26" s="25">
+        <v>369.25299999999999</v>
+      </c>
+      <c r="H26" s="25">
+        <v>102.35299999999999</v>
+      </c>
+      <c r="I26" s="25">
+        <v>99.980999999999995</v>
+      </c>
+      <c r="J26" s="25">
+        <v>97.82</v>
+      </c>
+      <c r="K26" s="25">
+        <v>98.616</v>
+      </c>
+      <c r="L26" s="25">
+        <v>98.67</v>
+      </c>
+      <c r="M26" s="25">
+        <v>98.427000000000007</v>
+      </c>
+      <c r="N26" s="25">
+        <v>84.466999999999999</v>
+      </c>
+      <c r="O26" s="25">
+        <v>83.573999999999998</v>
+      </c>
+      <c r="P26" s="25">
+        <v>83.302999999999997</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>83.73</v>
+      </c>
+      <c r="R26" s="25">
+        <v>497.44</v>
+      </c>
+      <c r="S26" s="25">
+        <v>930.94100000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="25">
+        <v>63.465000000000003</v>
+      </c>
+      <c r="G27" s="25">
+        <v>91.944000000000003</v>
+      </c>
+      <c r="H27" s="25">
+        <v>114.301</v>
+      </c>
+      <c r="I27" s="25">
+        <v>94.231999999999999</v>
+      </c>
+      <c r="J27" s="25">
+        <v>84.835999999999999</v>
+      </c>
+      <c r="K27" s="25">
+        <v>84.662000000000006</v>
+      </c>
+      <c r="L27" s="25">
+        <v>84.671000000000006</v>
+      </c>
+      <c r="M27" s="25">
+        <v>84.638000000000005</v>
+      </c>
+      <c r="N27" s="25">
+        <v>84.537000000000006</v>
+      </c>
+      <c r="O27" s="25">
+        <v>83.39</v>
+      </c>
+      <c r="P27" s="25">
+        <v>81.198999999999998</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>78.844999999999999</v>
+      </c>
+      <c r="R27" s="25">
+        <v>462.702</v>
+      </c>
+      <c r="S27" s="25">
+        <v>875.31100000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="25">
+        <v>56.072000000000003</v>
+      </c>
+      <c r="G28" s="25">
+        <v>57</v>
+      </c>
+      <c r="H28" s="25">
+        <v>58.31</v>
+      </c>
+      <c r="I28" s="25">
+        <v>65.16</v>
+      </c>
+      <c r="J28" s="25">
+        <v>62.86</v>
+      </c>
+      <c r="K28" s="25">
+        <v>60.36</v>
+      </c>
+      <c r="L28" s="25">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="M28" s="25">
+        <v>70.36</v>
+      </c>
+      <c r="N28" s="25">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="O28" s="25">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="P28" s="25">
+        <v>69.14</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="R28" s="25">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="S28" s="25">
+        <v>682.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="25">
+        <v>27.626999999999999</v>
+      </c>
+      <c r="G29" s="25">
+        <v>556.65700000000004</v>
+      </c>
+      <c r="H29" s="25">
+        <v>166.24100000000001</v>
+      </c>
+      <c r="I29" s="25">
+        <v>66.784000000000006</v>
+      </c>
+      <c r="J29" s="25">
+        <v>57.195999999999998</v>
+      </c>
+      <c r="K29" s="25">
+        <v>53.128</v>
+      </c>
+      <c r="L29" s="25">
+        <v>49.076000000000001</v>
+      </c>
+      <c r="M29" s="25">
+        <v>46.4</v>
+      </c>
+      <c r="N29" s="25">
+        <v>43.795000000000002</v>
+      </c>
+      <c r="O29" s="25">
+        <v>42.014000000000003</v>
+      </c>
+      <c r="P29" s="25">
+        <v>42.326999999999998</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>43.463000000000001</v>
+      </c>
+      <c r="R29" s="25">
+        <v>392.42500000000001</v>
+      </c>
+      <c r="S29" s="25">
+        <v>610.42399999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="25">
+        <v>32.091999999999999</v>
+      </c>
+      <c r="G30" s="25">
+        <v>33.136000000000003</v>
+      </c>
+      <c r="H30" s="25">
+        <v>33.457000000000001</v>
+      </c>
+      <c r="I30" s="25">
+        <v>33.357999999999997</v>
+      </c>
+      <c r="J30" s="25">
+        <v>33.220999999999997</v>
+      </c>
+      <c r="K30" s="25">
+        <v>33.551000000000002</v>
+      </c>
+      <c r="L30" s="25">
+        <v>33.93</v>
+      </c>
+      <c r="M30" s="25">
+        <v>34.127000000000002</v>
+      </c>
+      <c r="N30" s="25">
+        <v>34.392000000000003</v>
+      </c>
+      <c r="O30" s="25">
+        <v>34.612000000000002</v>
+      </c>
+      <c r="P30" s="25">
+        <v>34.838000000000001</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>35.093000000000004</v>
+      </c>
+      <c r="R30" s="25">
+        <v>167.517</v>
+      </c>
+      <c r="S30" s="25">
+        <v>340.57900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="25">
+        <v>24.148</v>
+      </c>
+      <c r="G31" s="25">
+        <v>23.616</v>
+      </c>
+      <c r="H31" s="25">
+        <v>24.824999999999999</v>
+      </c>
+      <c r="I31" s="25">
+        <v>26.01</v>
+      </c>
+      <c r="J31" s="25">
+        <v>26.977</v>
+      </c>
+      <c r="K31" s="25">
+        <v>27.97</v>
+      </c>
+      <c r="L31" s="25">
+        <v>29.050999999999998</v>
+      </c>
+      <c r="M31" s="25">
+        <v>30.202999999999999</v>
+      </c>
+      <c r="N31" s="25">
+        <v>31.414999999999999</v>
+      </c>
+      <c r="O31" s="25">
+        <v>32.686</v>
+      </c>
+      <c r="P31" s="25">
+        <v>34.037999999999997</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>35.448999999999998</v>
+      </c>
+      <c r="R31" s="25">
+        <v>134.833</v>
+      </c>
+      <c r="S31" s="25">
+        <v>298.62400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="25">
+        <v>302.64800000000002</v>
+      </c>
+      <c r="G33" s="25">
+        <v>1131.606</v>
+      </c>
+      <c r="H33" s="25">
+        <v>499.48700000000002</v>
+      </c>
+      <c r="I33" s="25">
+        <v>385.52499999999998</v>
+      </c>
+      <c r="J33" s="25">
+        <v>362.91</v>
+      </c>
+      <c r="K33" s="25">
+        <v>358.28699999999998</v>
+      </c>
+      <c r="L33" s="25">
+        <v>363.608</v>
+      </c>
+      <c r="M33" s="25">
+        <v>364.15499999999997</v>
+      </c>
+      <c r="N33" s="25">
+        <v>350.67599999999999</v>
+      </c>
+      <c r="O33" s="25">
+        <v>355.81599999999997</v>
+      </c>
+      <c r="P33" s="25">
+        <v>344.84500000000003</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>353.29</v>
+      </c>
+      <c r="R33" s="25">
+        <v>1969.817</v>
+      </c>
+      <c r="S33" s="25">
+        <v>3738.5990000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="V34" s="6">
+        <v>2156</v>
+      </c>
+      <c r="W34" s="6">
+        <v>3225</v>
+      </c>
+      <c r="X34" s="6">
+        <f>W34-V34</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="U35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="V35" s="6">
+        <v>775</v>
+      </c>
+      <c r="W35" s="6">
+        <v>862</v>
+      </c>
+      <c r="X35" s="6">
+        <f>W35-V35</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="25">
+        <v>105.95099999999999</v>
+      </c>
+      <c r="G36" s="25">
+        <v>108.867</v>
+      </c>
+      <c r="H36" s="25">
+        <v>111.551</v>
+      </c>
+      <c r="I36" s="25">
+        <v>114.39</v>
+      </c>
+      <c r="J36" s="25">
+        <v>117.389</v>
+      </c>
+      <c r="K36" s="25">
+        <v>120.721</v>
+      </c>
+      <c r="L36" s="25">
+        <v>124.235</v>
+      </c>
+      <c r="M36" s="25">
+        <v>127.459</v>
+      </c>
+      <c r="N36" s="25">
+        <v>131.07499999999999</v>
+      </c>
+      <c r="O36" s="25">
+        <v>134.679</v>
+      </c>
+      <c r="P36" s="25">
+        <v>138.11099999999999</v>
+      </c>
+      <c r="Q36" s="25">
+        <v>141.51</v>
+      </c>
+      <c r="R36" s="25">
+        <v>588.28599999999994</v>
+      </c>
+      <c r="S36" s="25">
+        <v>1261.1199999999999</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="V36" s="6">
+        <v>99</v>
+      </c>
+      <c r="W36" s="6">
+        <v>369</v>
+      </c>
+      <c r="X36" s="6">
+        <f>W36-V36</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="25">
+        <v>60.703000000000003</v>
+      </c>
+      <c r="G37" s="25">
+        <v>62.25</v>
+      </c>
+      <c r="H37" s="25">
+        <v>63.75</v>
+      </c>
+      <c r="I37" s="25">
+        <v>70.5</v>
+      </c>
+      <c r="J37" s="25">
+        <v>67.2</v>
+      </c>
+      <c r="K37" s="25">
+        <v>63.35</v>
+      </c>
+      <c r="L37" s="25">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M37" s="25">
+        <v>72.2</v>
+      </c>
+      <c r="N37" s="25">
+        <v>74</v>
+      </c>
+      <c r="O37" s="25">
+        <v>81.8</v>
+      </c>
+      <c r="P37" s="25">
+        <v>71.7</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="R37" s="25">
+        <v>335.2</v>
+      </c>
+      <c r="S37" s="25">
+        <v>714.5</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="6">
+        <v>28</v>
+      </c>
+      <c r="W37" s="6">
+        <v>557</v>
+      </c>
+      <c r="X37" s="6">
+        <f>W37-V37</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="25">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="G38" s="25">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H38" s="25">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="I38" s="25">
+        <v>4.3310000000000004</v>
+      </c>
+      <c r="J38" s="25">
+        <v>5.1680000000000001</v>
+      </c>
+      <c r="K38" s="25">
+        <v>5.306</v>
+      </c>
+      <c r="L38" s="25">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="M38" s="25">
+        <v>10.694000000000001</v>
+      </c>
+      <c r="N38" s="25">
+        <v>6.8220000000000001</v>
+      </c>
+      <c r="O38" s="25">
+        <v>6.0540000000000003</v>
+      </c>
+      <c r="P38" s="25">
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>6.3620000000000001</v>
+      </c>
+      <c r="R38" s="25">
+        <v>20.632999999999999</v>
+      </c>
+      <c r="S38" s="25">
+        <v>56.692999999999998</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V38" s="6">
+        <v>63</v>
+      </c>
+      <c r="W38" s="6">
+        <v>92</v>
+      </c>
+      <c r="X38" s="6">
+        <f>W38-V38</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="25">
+        <v>170.04599999999999</v>
+      </c>
+      <c r="G40" s="25">
+        <v>173.13499999999999</v>
+      </c>
+      <c r="H40" s="25">
+        <v>179.19499999999999</v>
+      </c>
+      <c r="I40" s="25">
+        <v>189.221</v>
+      </c>
+      <c r="J40" s="25">
+        <v>189.75700000000001</v>
+      </c>
+      <c r="K40" s="25">
+        <v>189.37700000000001</v>
+      </c>
+      <c r="L40" s="25">
+        <v>196.56899999999999</v>
+      </c>
+      <c r="M40" s="25">
+        <v>210.35300000000001</v>
+      </c>
+      <c r="N40" s="25">
+        <v>211.89699999999999</v>
+      </c>
+      <c r="O40" s="25">
+        <v>222.53299999999999</v>
+      </c>
+      <c r="P40" s="25">
+        <v>215.93899999999999</v>
+      </c>
+      <c r="Q40" s="25">
+        <v>227.47200000000001</v>
+      </c>
+      <c r="R40" s="25">
+        <v>944.11900000000003</v>
+      </c>
+      <c r="S40" s="25">
+        <v>2032.3130000000001</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="V40" s="6">
+        <v>115</v>
+      </c>
+      <c r="W40" s="6">
+        <v>122</v>
+      </c>
+      <c r="X40" s="6">
+        <f>W40-V40</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="U41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V41" s="6">
+        <v>1038</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1091</v>
+      </c>
+      <c r="X41" s="6">
+        <f>W41-V41</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="U42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="V42" s="6">
+        <v>0</v>
+      </c>
+      <c r="W42" s="6">
+        <v>105</v>
+      </c>
+      <c r="X42" s="6">
+        <f>W42-V42</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="25">
+        <v>101.09699999999999</v>
+      </c>
+      <c r="G43" s="25">
+        <v>111.658</v>
+      </c>
+      <c r="H43" s="25">
+        <v>115.39100000000001</v>
+      </c>
+      <c r="I43" s="25">
+        <v>128.47800000000001</v>
+      </c>
+      <c r="J43" s="25">
+        <v>123.547</v>
+      </c>
+      <c r="K43" s="25">
+        <v>116.509</v>
+      </c>
+      <c r="L43" s="25">
+        <v>131.29</v>
+      </c>
+      <c r="M43" s="25">
+        <v>135.39500000000001</v>
+      </c>
+      <c r="N43" s="25">
+        <v>139.499</v>
+      </c>
+      <c r="O43" s="25">
+        <v>155.96</v>
+      </c>
+      <c r="P43" s="25">
+        <v>135.941</v>
+      </c>
+      <c r="Q43" s="25">
+        <v>152.64099999999999</v>
+      </c>
+      <c r="R43" s="25">
+        <v>615.21500000000003</v>
+      </c>
+      <c r="S43" s="25">
+        <v>1334.6510000000001</v>
+      </c>
+      <c r="T43" s="25"/>
+      <c r="X43" s="6">
+        <f>SUM(X35:X42)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="25">
+        <v>13.925000000000001</v>
+      </c>
+      <c r="G44" s="25">
+        <v>9.9890000000000008</v>
+      </c>
+      <c r="H44" s="25">
+        <v>16.190999999999999</v>
+      </c>
+      <c r="I44" s="25">
+        <v>18.504999999999999</v>
+      </c>
+      <c r="J44" s="25">
+        <v>17.693999999999999</v>
+      </c>
+      <c r="K44" s="25">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L44" s="25">
+        <v>17.806000000000001</v>
+      </c>
+      <c r="M44" s="25">
+        <v>18.079000000000001</v>
+      </c>
+      <c r="N44" s="25">
+        <v>18.611000000000001</v>
+      </c>
+      <c r="O44" s="25">
+        <v>20.059000000000001</v>
+      </c>
+      <c r="P44" s="25">
+        <v>18.477</v>
+      </c>
+      <c r="Q44" s="25">
+        <v>20.954999999999998</v>
+      </c>
+      <c r="R44" s="25">
+        <v>87.096000000000004</v>
+      </c>
+      <c r="S44" s="25">
+        <v>183.27699999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S45" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="25">
+        <v>115.02200000000001</v>
+      </c>
+      <c r="G46" s="25">
+        <v>121.64700000000001</v>
+      </c>
+      <c r="H46" s="25">
+        <v>131.58199999999999</v>
+      </c>
+      <c r="I46" s="25">
+        <v>146.983</v>
+      </c>
+      <c r="J46" s="25">
+        <v>141.24100000000001</v>
+      </c>
+      <c r="K46" s="25">
+        <v>133.40899999999999</v>
+      </c>
+      <c r="L46" s="25">
+        <v>149.096</v>
+      </c>
+      <c r="M46" s="25">
+        <v>153.47399999999999</v>
+      </c>
+      <c r="N46" s="25">
+        <v>158.11000000000001</v>
+      </c>
+      <c r="O46" s="25">
+        <v>176.01900000000001</v>
+      </c>
+      <c r="P46" s="25">
+        <v>154.41800000000001</v>
+      </c>
+      <c r="Q46" s="25">
+        <v>173.596</v>
+      </c>
+      <c r="R46" s="25">
+        <v>702.31100000000004</v>
+      </c>
+      <c r="S46" s="25">
+        <v>1517.9280000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="90">
+        <f>F15+F23-F21-F19+F33+F68+F46+F48</f>
+        <v>2155.5680000000002</v>
+      </c>
+      <c r="G47" s="90">
+        <f>G15+G23-G21-G19+G33+G68+G46+G48</f>
+        <v>3224.5829999999996</v>
+      </c>
+      <c r="H47" s="90">
+        <f>H15+H23-H21-H19+H33+H68+H46</f>
+        <v>2492.3159999999998</v>
+      </c>
+      <c r="I47" s="90">
+        <f>I15+I23-I21-I19+I33+I68+I46</f>
+        <v>2602.0319999999997</v>
+      </c>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+    </row>
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90">
+        <f>175*0.6</f>
+        <v>105</v>
+      </c>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+    </row>
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90">
+        <f>G47-G48-G29+F29-G26+F26-G18+H18</f>
+        <v>2268.2089999999994</v>
+      </c>
+      <c r="H49" s="90">
+        <f>H47-H29+F29-H27-F27</f>
+        <v>2175.9359999999997</v>
+      </c>
+      <c r="I49" s="90">
+        <f>I47-I29-F29-I27-F27</f>
+        <v>2349.9239999999995</v>
+      </c>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+    </row>
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90">
+        <f>G47-G49</f>
+        <v>956.37400000000025</v>
+      </c>
+      <c r="H50" s="90">
+        <f t="shared" ref="H50:I50" si="0">H47-H49</f>
+        <v>316.38000000000011</v>
+      </c>
+      <c r="I50" s="90">
+        <f t="shared" si="0"/>
+        <v>252.10800000000017</v>
+      </c>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+    </row>
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="92"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="92"/>
+    </row>
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="24">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="G53" s="24">
+        <v>576.51800000000003</v>
+      </c>
+      <c r="H53" s="24">
+        <v>0.106</v>
+      </c>
+      <c r="I53" s="24">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J53" s="24">
+        <v>0</v>
+      </c>
+      <c r="K53" s="24">
+        <v>0</v>
+      </c>
+      <c r="L53" s="24">
+        <v>0</v>
+      </c>
+      <c r="M53" s="24">
+        <v>0</v>
+      </c>
+      <c r="N53" s="24">
+        <v>0</v>
+      </c>
+      <c r="O53" s="24">
+        <v>0</v>
+      </c>
+      <c r="P53" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>0</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="S53" s="24">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="24">
+        <v>0</v>
+      </c>
+      <c r="G54" s="24">
+        <v>149.97300000000001</v>
+      </c>
+      <c r="H54" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I54" s="24">
+        <v>0</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0</v>
+      </c>
+      <c r="K54" s="24">
+        <v>0</v>
+      </c>
+      <c r="L54" s="24">
+        <v>0</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>0</v>
+      </c>
+      <c r="O54" s="24">
+        <v>0</v>
+      </c>
+      <c r="P54" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0</v>
+      </c>
+      <c r="R54" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S54" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="24">
+        <v>32.045999999999999</v>
+      </c>
+      <c r="G55" s="24">
+        <v>29.885000000000002</v>
+      </c>
+      <c r="H55" s="24">
+        <v>20.061</v>
+      </c>
+      <c r="I55" s="24">
+        <v>19.181000000000001</v>
+      </c>
+      <c r="J55" s="24">
+        <v>18.681000000000001</v>
+      </c>
+      <c r="K55" s="24">
+        <v>18.213000000000001</v>
+      </c>
+      <c r="L55" s="24">
+        <v>17.533999999999999</v>
+      </c>
+      <c r="M55" s="24">
+        <v>17.527999999999999</v>
+      </c>
+      <c r="N55" s="24">
+        <v>17.11</v>
+      </c>
+      <c r="O55" s="24">
+        <v>17.074999999999999</v>
+      </c>
+      <c r="P55" s="24">
+        <v>16.859000000000002</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>16.908000000000001</v>
+      </c>
+      <c r="R55" s="24">
+        <v>93.67</v>
+      </c>
+      <c r="S55" s="24">
+        <v>179.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="24">
+        <v>-8.0730000000000004</v>
+      </c>
+      <c r="G56" s="24">
+        <v>-6.1150000000000002</v>
+      </c>
+      <c r="H56" s="24">
+        <v>-3.4049999999999998</v>
+      </c>
+      <c r="I56" s="24">
+        <v>-3.9980000000000002</v>
+      </c>
+      <c r="J56" s="24">
+        <v>-2.9009999999999998</v>
+      </c>
+      <c r="K56" s="24">
+        <v>-2.379</v>
+      </c>
+      <c r="L56" s="24">
+        <v>-2.9540000000000002</v>
+      </c>
+      <c r="M56" s="24">
+        <v>-3.64</v>
+      </c>
+      <c r="N56" s="24">
+        <v>-4.3630000000000004</v>
+      </c>
+      <c r="O56" s="24">
+        <v>-5.194</v>
+      </c>
+      <c r="P56" s="24">
+        <v>-6.0990000000000002</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>-7.0890000000000004</v>
+      </c>
+      <c r="R56" s="24">
+        <v>-15.637</v>
+      </c>
+      <c r="S56" s="24">
+        <v>-42.021999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="24">
+        <v>10.457000000000001</v>
+      </c>
+      <c r="G57" s="24">
+        <v>10.657999999999999</v>
+      </c>
+      <c r="H57" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="I57" s="24">
+        <v>11.794</v>
+      </c>
+      <c r="J57" s="24">
+        <v>12.409000000000001</v>
+      </c>
+      <c r="K57" s="24">
+        <v>12.923999999999999</v>
+      </c>
+      <c r="L57" s="24">
+        <v>13.631</v>
+      </c>
+      <c r="M57" s="24">
+        <v>14.273</v>
+      </c>
+      <c r="N57" s="24">
+        <v>15.036</v>
+      </c>
+      <c r="O57" s="24">
+        <v>15.776</v>
+      </c>
+      <c r="P57" s="24">
+        <v>16.579000000000001</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>17.369</v>
+      </c>
+      <c r="R57" s="24">
+        <v>61.957999999999998</v>
+      </c>
+      <c r="S57" s="24">
+        <v>140.99100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="24">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
+        <v>2.57</v>
+      </c>
+      <c r="I58" s="24">
+        <v>4.91</v>
+      </c>
+      <c r="J58" s="24">
+        <v>4.29</v>
+      </c>
+      <c r="K58" s="24">
+        <v>4.68</v>
+      </c>
+      <c r="L58" s="24">
+        <v>5.23</v>
+      </c>
+      <c r="M58" s="24">
+        <v>5.44</v>
+      </c>
+      <c r="N58" s="24">
+        <v>5.63</v>
+      </c>
+      <c r="O58" s="24">
+        <v>5.9</v>
+      </c>
+      <c r="P58" s="24">
+        <v>6.23</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>6.91</v>
+      </c>
+      <c r="R58" s="24">
+        <v>21.68</v>
+      </c>
+      <c r="S58" s="24">
+        <v>51.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="24">
+        <v>33.152000000000001</v>
+      </c>
+      <c r="G59" s="24">
+        <v>93.71</v>
+      </c>
+      <c r="H59" s="24">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="I59" s="24">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="J59" s="24">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="K59" s="24">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="L59" s="24">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M59" s="24">
+        <v>2.984</v>
+      </c>
+      <c r="N59" s="24">
+        <v>3.907</v>
+      </c>
+      <c r="O59" s="24">
+        <v>4.694</v>
+      </c>
+      <c r="P59" s="24">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="R59" s="24">
+        <v>7.8209999999999997</v>
+      </c>
+      <c r="S59" s="24">
+        <v>29.829000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="24">
+        <v>58.710999999999999</v>
+      </c>
+      <c r="G60" s="24">
+        <v>114.73099999999999</v>
+      </c>
+      <c r="H60" s="24">
+        <v>68.715000000000003</v>
+      </c>
+      <c r="I60" s="24">
+        <v>71.436999999999998</v>
+      </c>
+      <c r="J60" s="24">
+        <v>69.662999999999997</v>
+      </c>
+      <c r="K60" s="24">
+        <v>69.725999999999999</v>
+      </c>
+      <c r="L60" s="24">
+        <v>70.003</v>
+      </c>
+      <c r="M60" s="24">
+        <v>70.840999999999994</v>
+      </c>
+      <c r="N60" s="24">
+        <v>69.992000000000004</v>
+      </c>
+      <c r="O60" s="24">
+        <v>70.025000000000006</v>
+      </c>
+      <c r="P60" s="24">
+        <v>69.733000000000004</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>67.626000000000005</v>
+      </c>
+      <c r="R60" s="24">
+        <v>349.54399999999998</v>
+      </c>
+      <c r="S60" s="24">
+        <v>697.76099999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S61" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="24">
+        <v>125.56100000000001</v>
+      </c>
+      <c r="G62" s="24">
+        <v>969.36</v>
+      </c>
+      <c r="H62" s="24">
+        <v>100.455</v>
+      </c>
+      <c r="I62" s="24">
+        <v>104.577</v>
+      </c>
+      <c r="J62" s="24">
+        <v>103.595</v>
+      </c>
+      <c r="K62" s="24">
+        <v>104.943</v>
+      </c>
+      <c r="L62" s="24">
+        <v>105.664</v>
+      </c>
+      <c r="M62" s="24">
+        <v>107.426</v>
+      </c>
+      <c r="N62" s="24">
+        <v>107.312</v>
+      </c>
+      <c r="O62" s="24">
+        <v>108.276</v>
+      </c>
+      <c r="P62" s="24">
+        <v>108.336</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>107.113</v>
+      </c>
+      <c r="R62" s="24">
+        <v>519.23400000000004</v>
+      </c>
+      <c r="S62" s="24">
+        <v>1057.6969999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="25">
+        <v>3009.8150000000001</v>
+      </c>
+      <c r="G65" s="25">
+        <v>4886.0630000000001</v>
+      </c>
+      <c r="H65" s="25">
+        <v>3471.8890000000001</v>
+      </c>
+      <c r="I65" s="25">
+        <v>3587.0010000000002</v>
+      </c>
+      <c r="J65" s="25">
+        <v>3643.232</v>
+      </c>
+      <c r="K65" s="25">
+        <v>3751.9870000000001</v>
+      </c>
+      <c r="L65" s="25">
+        <v>4008.431</v>
+      </c>
+      <c r="M65" s="25">
+        <v>4221.1710000000003</v>
+      </c>
+      <c r="N65" s="25">
+        <v>4414.2790000000005</v>
+      </c>
+      <c r="O65" s="25">
+        <v>4731.8140000000003</v>
+      </c>
+      <c r="P65" s="25">
+        <v>4776.241</v>
+      </c>
+      <c r="Q65" s="25">
+        <v>5106.8760000000002</v>
+      </c>
+      <c r="R65" s="25">
+        <v>18462.54</v>
+      </c>
+      <c r="S65" s="25">
+        <v>41712.921000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+    </row>
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+    </row>
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="25">
+        <v>-131.53</v>
+      </c>
+      <c r="G68" s="25">
+        <v>-140.73599999999999</v>
+      </c>
+      <c r="H68" s="25">
+        <v>-146.95599999999999</v>
+      </c>
+      <c r="I68" s="25">
+        <v>-159.81100000000001</v>
+      </c>
+      <c r="J68" s="25">
+        <v>-176.108</v>
+      </c>
+      <c r="K68" s="25">
+        <v>-191.893</v>
+      </c>
+      <c r="L68" s="25">
+        <v>-206.78899999999999</v>
+      </c>
+      <c r="M68" s="25">
+        <v>-221.84800000000001</v>
+      </c>
+      <c r="N68" s="25">
+        <v>-239.398</v>
+      </c>
+      <c r="O68" s="25">
+        <v>-256.38799999999998</v>
+      </c>
+      <c r="P68" s="25">
+        <v>-276.03899999999999</v>
+      </c>
+      <c r="Q68" s="25">
+        <v>-290.81</v>
+      </c>
+      <c r="R68" s="25">
+        <v>-881.55700000000002</v>
+      </c>
+      <c r="S68" s="25">
+        <v>-2166.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+    </row>
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+    </row>
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="25">
+        <v>-36.439</v>
+      </c>
+      <c r="G71" s="25">
+        <v>-41.506</v>
+      </c>
+      <c r="H71" s="25">
+        <v>-45.792000000000002</v>
+      </c>
+      <c r="I71" s="25">
+        <v>-47.43</v>
+      </c>
+      <c r="J71" s="25">
+        <v>-49.198</v>
+      </c>
+      <c r="K71" s="25">
+        <v>-51.003999999999998</v>
+      </c>
+      <c r="L71" s="25">
+        <v>-52.83</v>
+      </c>
+      <c r="M71" s="25">
+        <v>-54.661999999999999</v>
+      </c>
+      <c r="N71" s="25">
+        <v>-56.475999999999999</v>
+      </c>
+      <c r="O71" s="25">
+        <v>-58.28</v>
+      </c>
+      <c r="P71" s="25">
+        <v>-60.107999999999997</v>
+      </c>
+      <c r="Q71" s="25">
+        <v>-61.978000000000002</v>
+      </c>
+      <c r="R71" s="25">
+        <v>-246.25399999999999</v>
+      </c>
+      <c r="S71" s="25">
+        <v>-537.75800000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="25">
+        <v>-20.640999999999998</v>
+      </c>
+      <c r="G72" s="25">
+        <v>-21.596</v>
+      </c>
+      <c r="H72" s="25">
+        <v>-25</v>
+      </c>
+      <c r="I72" s="25">
+        <v>-25.242999999999999</v>
+      </c>
+      <c r="J72" s="25">
+        <v>-25.503</v>
+      </c>
+      <c r="K72" s="25">
+        <v>-25.806999999999999</v>
+      </c>
+      <c r="L72" s="25">
+        <v>-26.143999999999998</v>
+      </c>
+      <c r="M72" s="25">
+        <v>-26.521000000000001</v>
+      </c>
+      <c r="N72" s="25">
+        <v>-26.937999999999999</v>
+      </c>
+      <c r="O72" s="25">
+        <v>-27.417000000000002</v>
+      </c>
+      <c r="P72" s="25">
+        <v>-27.948</v>
+      </c>
+      <c r="Q72" s="25">
+        <v>-28.527999999999999</v>
+      </c>
+      <c r="R72" s="25">
+        <v>-127.697</v>
+      </c>
+      <c r="S72" s="25">
+        <v>-265.04899999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="25">
+        <v>-18.055</v>
+      </c>
+      <c r="G73" s="25">
+        <v>-18.274999999999999</v>
+      </c>
+      <c r="H73" s="25">
+        <v>-18.619</v>
+      </c>
+      <c r="I73" s="25">
+        <v>-19.074999999999999</v>
+      </c>
+      <c r="J73" s="25">
+        <v>-19.535</v>
+      </c>
+      <c r="K73" s="25">
+        <v>-20.032</v>
+      </c>
+      <c r="L73" s="25">
+        <v>-20.57</v>
+      </c>
+      <c r="M73" s="25">
+        <v>-21.15</v>
+      </c>
+      <c r="N73" s="25">
+        <v>-21.771999999999998</v>
+      </c>
+      <c r="O73" s="25">
+        <v>-22.434999999999999</v>
+      </c>
+      <c r="P73" s="25">
+        <v>-23.13</v>
+      </c>
+      <c r="Q73" s="25">
+        <v>-23.853000000000002</v>
+      </c>
+      <c r="R73" s="25">
+        <v>-97.831000000000003</v>
+      </c>
+      <c r="S73" s="25">
+        <v>-210.17099999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S74" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="234" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="235"/>
+      <c r="F75" s="25">
+        <v>-75.135000000000005</v>
+      </c>
+      <c r="G75" s="25">
+        <v>-81.376999999999995</v>
+      </c>
+      <c r="H75" s="25">
+        <v>-89.411000000000001</v>
+      </c>
+      <c r="I75" s="25">
+        <v>-91.748000000000005</v>
+      </c>
+      <c r="J75" s="25">
+        <v>-94.236000000000004</v>
+      </c>
+      <c r="K75" s="25">
+        <v>-96.843000000000004</v>
+      </c>
+      <c r="L75" s="25">
+        <v>-99.543999999999997</v>
+      </c>
+      <c r="M75" s="25">
+        <v>-102.333</v>
+      </c>
+      <c r="N75" s="25">
+        <v>-105.18600000000001</v>
+      </c>
+      <c r="O75" s="25">
+        <v>-108.13200000000001</v>
+      </c>
+      <c r="P75" s="25">
+        <v>-111.18600000000001</v>
+      </c>
+      <c r="Q75" s="25">
+        <v>-114.35899999999999</v>
+      </c>
+      <c r="R75" s="25">
+        <v>-471.78199999999998</v>
+      </c>
+      <c r="S75" s="25">
+        <v>-1012.978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+    </row>
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="25">
+        <v>-14.331</v>
+      </c>
+      <c r="G77" s="25">
+        <v>-10.007999999999999</v>
+      </c>
+      <c r="H77" s="25">
+        <v>-9.9969999999999999</v>
+      </c>
+      <c r="I77" s="25">
+        <v>-11.169</v>
+      </c>
+      <c r="J77" s="25">
+        <v>-10.786</v>
+      </c>
+      <c r="K77" s="25">
+        <v>-11.792</v>
+      </c>
+      <c r="L77" s="25">
+        <v>-11.88</v>
+      </c>
+      <c r="M77" s="25">
+        <v>-12.057</v>
+      </c>
+      <c r="N77" s="25">
+        <v>-12.396000000000001</v>
+      </c>
+      <c r="O77" s="25">
+        <v>-12.348000000000001</v>
+      </c>
+      <c r="P77" s="25">
+        <v>-13.318</v>
+      </c>
+      <c r="Q77" s="25">
+        <v>-14.282</v>
+      </c>
+      <c r="R77" s="25">
+        <v>-55.624000000000002</v>
+      </c>
+      <c r="S77" s="25">
+        <v>-120.02500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="25">
+        <v>-7.7629999999999999</v>
+      </c>
+      <c r="G78" s="25">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="H78" s="25">
+        <v>-8.6219999999999999</v>
+      </c>
+      <c r="I78" s="25">
+        <v>-9.0790000000000006</v>
+      </c>
+      <c r="J78" s="25">
+        <v>-9.5329999999999995</v>
+      </c>
+      <c r="K78" s="25">
+        <v>-10.01</v>
+      </c>
+      <c r="L78" s="25">
+        <v>-10.51</v>
+      </c>
+      <c r="M78" s="25">
+        <v>-11.035</v>
+      </c>
+      <c r="N78" s="25">
+        <v>-11.587</v>
+      </c>
+      <c r="O78" s="25">
+        <v>-12.167</v>
+      </c>
+      <c r="P78" s="25">
+        <v>-12.775</v>
+      </c>
+      <c r="Q78" s="25">
+        <v>-13.414</v>
+      </c>
+      <c r="R78" s="25">
+        <v>-47.753999999999998</v>
+      </c>
+      <c r="S78" s="25">
+        <v>-108.732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="25">
+        <v>-19.181999999999999</v>
+      </c>
+      <c r="G79" s="25">
+        <v>-4.2</v>
+      </c>
+      <c r="H79" s="25">
+        <v>0</v>
+      </c>
+      <c r="I79" s="25">
+        <v>0</v>
+      </c>
+      <c r="J79" s="25">
+        <v>0</v>
+      </c>
+      <c r="K79" s="25">
+        <v>0</v>
+      </c>
+      <c r="L79" s="25">
+        <v>0</v>
+      </c>
+      <c r="M79" s="25">
+        <v>0</v>
+      </c>
+      <c r="N79" s="25">
+        <v>0</v>
+      </c>
+      <c r="O79" s="25">
+        <v>0</v>
+      </c>
+      <c r="P79" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="25">
+        <v>0</v>
+      </c>
+      <c r="R79" s="25">
+        <v>0</v>
+      </c>
+      <c r="S79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="25">
+        <v>-27.701000000000001</v>
+      </c>
+      <c r="G80" s="25">
+        <v>-24.986000000000001</v>
+      </c>
+      <c r="H80" s="25">
+        <v>-33.298999999999999</v>
+      </c>
+      <c r="I80" s="25">
+        <v>-40.917999999999999</v>
+      </c>
+      <c r="J80" s="25">
+        <v>-39.795999999999999</v>
+      </c>
+      <c r="K80" s="25">
+        <v>-30.850999999999999</v>
+      </c>
+      <c r="L80" s="25">
+        <v>-39.113</v>
+      </c>
+      <c r="M80" s="25">
+        <v>-31.596</v>
+      </c>
+      <c r="N80" s="25">
+        <v>-31.497</v>
+      </c>
+      <c r="O80" s="25">
+        <v>-28.585000000000001</v>
+      </c>
+      <c r="P80" s="25">
+        <v>-28.823</v>
+      </c>
+      <c r="Q80" s="29">
+        <v>-22.437000000000001</v>
+      </c>
+      <c r="R80" s="25">
+        <v>-183.977</v>
+      </c>
+      <c r="S80" s="25">
+        <v>-326.91500000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S81" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="28"/>
+      <c r="F82" s="25">
+        <v>-275.642</v>
+      </c>
+      <c r="G82" s="25">
+        <v>-269.35700000000003</v>
+      </c>
+      <c r="H82" s="25">
+        <v>-288.28500000000003</v>
+      </c>
+      <c r="I82" s="25">
+        <v>-312.72500000000002</v>
+      </c>
+      <c r="J82" s="25">
+        <v>-330.459</v>
+      </c>
+      <c r="K82" s="25">
+        <v>-341.38900000000001</v>
+      </c>
+      <c r="L82" s="25">
+        <v>-367.83600000000001</v>
+      </c>
+      <c r="M82" s="25">
+        <v>-378.86900000000003</v>
+      </c>
+      <c r="N82" s="25">
+        <v>-400.06400000000002</v>
+      </c>
+      <c r="O82" s="25">
+        <v>-417.62</v>
+      </c>
+      <c r="P82" s="25">
+        <v>-442.14100000000002</v>
+      </c>
+      <c r="Q82" s="25">
+        <v>-455.30200000000002</v>
+      </c>
+      <c r="R82" s="25">
+        <v>-1640.694</v>
+      </c>
+      <c r="S82" s="25">
+        <v>-3734.69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+    </row>
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+    </row>
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="25">
+        <v>2734.1729999999998</v>
+      </c>
+      <c r="G85" s="25">
+        <v>4616.7060000000001</v>
+      </c>
+      <c r="H85" s="25">
+        <v>3183.6039999999998</v>
+      </c>
+      <c r="I85" s="25">
+        <v>3274.2759999999998</v>
+      </c>
+      <c r="J85" s="25">
+        <v>3312.7730000000001</v>
+      </c>
+      <c r="K85" s="25">
+        <v>3410.598</v>
+      </c>
+      <c r="L85" s="25">
+        <v>3640.5949999999998</v>
+      </c>
+      <c r="M85" s="25">
+        <v>3842.3020000000001</v>
+      </c>
+      <c r="N85" s="25">
+        <v>4014.2150000000001</v>
+      </c>
+      <c r="O85" s="25">
+        <v>4314.1940000000004</v>
+      </c>
+      <c r="P85" s="25">
+        <v>4334.1000000000004</v>
+      </c>
+      <c r="Q85" s="25">
+        <v>4651.5739999999996</v>
+      </c>
+      <c r="R85" s="25">
+        <v>16821.846000000001</v>
+      </c>
+      <c r="S85" s="25">
+        <v>37978.231</v>
+      </c>
+      <c r="T85" s="25"/>
+    </row>
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+    </row>
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+    </row>
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="23"/>
+    </row>
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="25">
+        <v>643.87599999999998</v>
+      </c>
+      <c r="G89" s="25">
+        <v>721.33199999999999</v>
+      </c>
+      <c r="H89" s="25">
+        <v>662.77700000000004</v>
+      </c>
+      <c r="I89" s="25">
+        <v>813.46100000000001</v>
+      </c>
+      <c r="J89" s="25">
+        <v>836.99199999999996</v>
+      </c>
+      <c r="K89" s="25">
+        <v>844.35500000000002</v>
+      </c>
+      <c r="L89" s="25">
+        <v>951.00599999999997</v>
+      </c>
+      <c r="M89" s="25">
+        <v>1017.881</v>
+      </c>
+      <c r="N89" s="25">
+        <v>1088.567</v>
+      </c>
+      <c r="O89" s="25">
+        <v>1234.4010000000001</v>
+      </c>
+      <c r="P89" s="25">
+        <v>1173.8789999999999</v>
+      </c>
+      <c r="Q89" s="25">
+        <v>1320.4839999999999</v>
+      </c>
+      <c r="R89" s="25">
+        <v>4108.5910000000003</v>
+      </c>
+      <c r="S89" s="25">
+        <v>9943.8029999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="23">
+        <v>1126.519</v>
+      </c>
+      <c r="G90" s="23">
+        <v>1258.6759999999999</v>
+      </c>
+      <c r="H90" s="23">
+        <v>1272.1010000000001</v>
+      </c>
+      <c r="I90" s="23">
+        <v>1399.453</v>
+      </c>
+      <c r="J90" s="23">
+        <v>1401.7059999999999</v>
+      </c>
+      <c r="K90" s="23">
+        <v>1433.2070000000001</v>
+      </c>
+      <c r="L90" s="23">
+        <v>1569.451</v>
+      </c>
+      <c r="M90" s="23">
+        <v>1667.663</v>
+      </c>
+      <c r="N90" s="23">
+        <v>1771.43</v>
+      </c>
+      <c r="O90" s="23">
+        <v>1952.9970000000001</v>
+      </c>
+      <c r="P90" s="23">
+        <v>1930.9259999999999</v>
+      </c>
+      <c r="Q90" s="23">
+        <v>2120.0050000000001</v>
+      </c>
+      <c r="R90" s="23">
+        <v>7075.9179999999997</v>
+      </c>
+      <c r="S90" s="23">
+        <v>16518.938999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="D75:E75"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A0AC9F93-CD82-4A1A-AB7B-6DE6598B6904}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -17950,32 +17896,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17992,4 +17928,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6339456-5532-D14D-B965-DA85899B0AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370B846-0E88-FE46-911C-23A560CCD531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2387,13 +2387,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2766,10 +2766,10 @@
   <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5970,7 +5970,7 @@
         <v>437574.00006843987</v>
       </c>
       <c r="M58" s="145">
-        <f t="shared" si="45"/>
+        <f>M49+M22-M45</f>
         <v>435863.45738357492</v>
       </c>
       <c r="N58" s="145">
@@ -6395,11 +6395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7993,7 +7993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -8837,7 +8837,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11146,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12261,22 +12261,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-      <c r="N6" s="233"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="233"/>
-      <c r="R6" s="233"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="230" t="s">
@@ -13012,21 +13012,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="231" t="s">
+      <c r="H27" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="231"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="231"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -13342,21 +13342,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="232" t="s">
+      <c r="F37" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="232"/>
-      <c r="L37" s="232"/>
-      <c r="M37" s="232"/>
-      <c r="N37" s="232"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="232"/>
-      <c r="Q37" s="232"/>
-      <c r="R37" s="232"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="233"/>
+      <c r="I37" s="233"/>
+      <c r="J37" s="233"/>
+      <c r="K37" s="233"/>
+      <c r="L37" s="233"/>
+      <c r="M37" s="233"/>
+      <c r="N37" s="233"/>
+      <c r="O37" s="233"/>
+      <c r="P37" s="233"/>
+      <c r="Q37" s="233"/>
+      <c r="R37" s="233"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -13672,21 +13672,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="231" t="s">
+      <c r="F48" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="231"/>
-      <c r="H48" s="231"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="231"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="231"/>
-      <c r="Q48" s="231"/>
-      <c r="R48" s="231"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="232"/>
+      <c r="N48" s="232"/>
+      <c r="O48" s="232"/>
+      <c r="P48" s="232"/>
+      <c r="Q48" s="232"/>
+      <c r="R48" s="232"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -13998,12 +13998,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14012,6 +14006,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17899,18 +17899,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17933,14 +17933,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17955,4 +17947,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370B846-0E88-FE46-911C-23A560CCD531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6339456-5532-D14D-B965-DA85899B0AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2387,13 +2387,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2766,10 +2766,10 @@
   <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5970,7 +5970,7 @@
         <v>437574.00006843987</v>
       </c>
       <c r="M58" s="145">
-        <f>M49+M22-M45</f>
+        <f t="shared" si="45"/>
         <v>435863.45738357492</v>
       </c>
       <c r="N58" s="145">
@@ -6395,11 +6395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7993,7 +7993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -8837,7 +8837,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11146,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12261,22 +12261,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="230" t="s">
@@ -13012,21 +13012,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="232" t="s">
+      <c r="H27" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="232"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="232"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="232"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="232"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -13342,21 +13342,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="233" t="s">
+      <c r="F37" s="232" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="233"/>
-      <c r="H37" s="233"/>
-      <c r="I37" s="233"/>
-      <c r="J37" s="233"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="233"/>
-      <c r="M37" s="233"/>
-      <c r="N37" s="233"/>
-      <c r="O37" s="233"/>
-      <c r="P37" s="233"/>
-      <c r="Q37" s="233"/>
-      <c r="R37" s="233"/>
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="232"/>
+      <c r="K37" s="232"/>
+      <c r="L37" s="232"/>
+      <c r="M37" s="232"/>
+      <c r="N37" s="232"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="232"/>
+      <c r="Q37" s="232"/>
+      <c r="R37" s="232"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -13672,21 +13672,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="232" t="s">
+      <c r="F48" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="232"/>
-      <c r="N48" s="232"/>
-      <c r="O48" s="232"/>
-      <c r="P48" s="232"/>
-      <c r="Q48" s="232"/>
-      <c r="R48" s="232"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="231"/>
+      <c r="M48" s="231"/>
+      <c r="N48" s="231"/>
+      <c r="O48" s="231"/>
+      <c r="P48" s="231"/>
+      <c r="Q48" s="231"/>
+      <c r="R48" s="231"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -13998,6 +13998,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14006,12 +14012,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17899,18 +17899,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17933,6 +17933,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17947,12 +17955,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\The Brookings Institution\Hutchins Center Team - Documents\Projects\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{0ED1648B-D5CA-4B20-9020-054624023CDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD9B89EE-FBDC-4797-9042-D540264669B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6339456-5532-D14D-B965-DA85899B0AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1233,7 +1235,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>add_federal_grants</t>
+    <t>add_federal_cgrants</t>
   </si>
 </sst>
 </file>
@@ -2385,13 +2387,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2770,20 +2772,20 @@
       <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="4" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="8.81640625" customWidth="1"/>
-    <col min="26" max="26" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="8.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="201" t="s">
         <v>167</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="AG1" s="200"/>
       <c r="AH1" s="200"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D2" s="200" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2855,7 @@
       <c r="AC2" s="200"/>
       <c r="AD2" s="200"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -2933,14 +2935,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="W4" s="151"/>
       <c r="AB4" s="151"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -3015,7 +3017,7 @@
       <c r="W5" s="151"/>
       <c r="AB5" s="151"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="186" t="s">
         <v>26</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>1762.3300952873258</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="179" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="179" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A7" s="187" t="s">
         <v>220</v>
       </c>
@@ -3166,7 +3168,7 @@
       <c r="AC7" s="184"/>
       <c r="AD7" s="184"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="186" t="s">
         <v>27</v>
       </c>
@@ -3263,7 +3265,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
     </row>
-    <row r="9" spans="1:35" s="179" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" s="179" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="187" t="s">
         <v>220</v>
       </c>
@@ -3312,7 +3314,7 @@
       <c r="AC9" s="195"/>
       <c r="AD9" s="195"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="186" t="s">
         <v>28</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>1517.5549260800469</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="179" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" s="179" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="187" t="s">
         <v>220</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="AC11" s="184"/>
       <c r="AD11" s="184"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>444.63027416621861</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="179" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" s="179" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="178" t="s">
         <v>220</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="AC13" s="184"/>
       <c r="AD13" s="184"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J14" s="88"/>
       <c r="K14" s="3"/>
       <c r="L14" s="88"/>
@@ -3618,7 +3620,7 @@
       <c r="O14" s="88"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
         <v>20</v>
       </c>
@@ -3878,7 +3880,7 @@
       </c>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="86" t="s">
         <v>142</v>
       </c>
@@ -3972,7 +3974,7 @@
       </c>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>217</v>
       </c>
@@ -4025,7 +4027,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="118" t="s">
         <v>139</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
         <v>166</v>
       </c>
@@ -4138,7 +4140,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="116" t="s">
         <v>140</v>
       </c>
@@ -4213,7 +4215,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="s">
         <v>150</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="118" t="s">
         <v>210</v>
       </c>
@@ -4328,7 +4330,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="118" t="s">
         <v>211</v>
       </c>
@@ -4374,7 +4376,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="86" t="s">
         <v>152</v>
       </c>
@@ -4472,7 +4474,7 @@
       </c>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="s">
         <v>161</v>
       </c>
@@ -4547,7 +4549,7 @@
       <c r="U27" s="88"/>
       <c r="V27" s="88"/>
     </row>
-    <row r="28" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -4569,7 +4571,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="144" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>73.464250000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="136" t="s">
         <v>205</v>
       </c>
@@ -4669,7 +4671,7 @@
       <c r="Y30" s="44"/>
       <c r="Z30" s="44"/>
     </row>
-    <row r="31" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="136"/>
       <c r="G31" s="135"/>
       <c r="H31" s="135"/>
@@ -4692,7 +4694,7 @@
       <c r="Y31" s="44"/>
       <c r="Z31" s="44"/>
     </row>
-    <row r="32" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>16</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>600.89149999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>233</v>
       </c>
@@ -4804,7 +4806,7 @@
       <c r="Y33" s="44"/>
       <c r="Z33" s="44"/>
     </row>
-    <row r="34" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="138" t="s">
         <v>234</v>
       </c>
@@ -4850,7 +4852,7 @@
       <c r="Y34" s="44"/>
       <c r="Z34" s="44"/>
     </row>
-    <row r="35" spans="1:31" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="140" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="139" t="s">
         <v>214</v>
       </c>
@@ -4877,7 +4879,7 @@
       <c r="Y35" s="143"/>
       <c r="Z35" s="143"/>
     </row>
-    <row r="36" spans="1:31" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="136" t="s">
         <v>215</v>
       </c>
@@ -4923,7 +4925,7 @@
       <c r="Y36" s="44"/>
       <c r="Z36" s="44"/>
     </row>
-    <row r="37" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="114" t="s">
         <v>202</v>
       </c>
@@ -4962,7 +4964,7 @@
       <c r="Y37" s="44"/>
       <c r="Z37" s="44"/>
     </row>
-    <row r="38" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="114" t="s">
         <v>206</v>
       </c>
@@ -5001,7 +5003,7 @@
       <c r="Y38" s="44"/>
       <c r="Z38" s="44"/>
     </row>
-    <row r="39" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="114" t="s">
         <v>203</v>
       </c>
@@ -5040,7 +5042,7 @@
       <c r="Y39" s="44"/>
       <c r="Z39" s="44"/>
     </row>
-    <row r="40" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="150" t="s">
         <v>222</v>
       </c>
@@ -5089,7 +5091,7 @@
       <c r="Y40" s="149"/>
       <c r="Z40" s="149"/>
     </row>
-    <row r="41" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J41" s="137"/>
       <c r="K41" s="137"/>
       <c r="L41" s="137"/>
@@ -5108,7 +5110,7 @@
       <c r="Y41" s="44"/>
       <c r="Z41" s="44"/>
     </row>
-    <row r="42" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>17</v>
       </c>
@@ -5154,7 +5156,7 @@
       <c r="AD42" s="44"/>
       <c r="AE42" s="44"/>
     </row>
-    <row r="43" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="115" t="s">
         <v>208</v>
       </c>
@@ -5206,7 +5208,7 @@
       <c r="AD43" s="44"/>
       <c r="AE43" s="44"/>
     </row>
-    <row r="44" spans="1:31" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="178" t="s">
         <v>207</v>
       </c>
@@ -5261,7 +5263,7 @@
       <c r="AD44" s="198"/>
       <c r="AE44" s="198"/>
     </row>
-    <row r="45" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>209</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>516.01800000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="144" t="s">
         <v>165</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>1695350.9987730861</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="144" t="s">
         <v>219</v>
       </c>
@@ -5474,8 +5476,8 @@
         <v>1489976.5673465251</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>15</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>884788.94669850683</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>235</v>
       </c>
@@ -5606,10 +5608,10 @@
         <v>157554.53585253056</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D51" s="137"/>
     </row>
-    <row r="52" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
         <v>232</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>727.33117238501666</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="160" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" s="160" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="160" t="s">
         <v>227</v>
       </c>
@@ -5734,7 +5736,7 @@
       <c r="AB53" s="163"/>
       <c r="AC53" s="163"/>
     </row>
-    <row r="54" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>18</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>2067.2767932057704</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="178" t="s">
         <v>220</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>2.14581565946403E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
         <v>221</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>2511.2524449716602</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" s="196" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="178" t="s">
         <v>220</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>9.3939269086562582E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="144" t="s">
         <v>168</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>390269.54732324288</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="144" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="144" t="s">
         <v>218</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>232715.01147071237</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>157554.53585253051</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D61" s="94"/>
       <c r="E61" s="94"/>
       <c r="F61" s="94"/>
@@ -6134,7 +6136,7 @@
       <c r="R61" s="94"/>
       <c r="S61" s="94"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -6160,7 +6162,7 @@
         <v>495.7</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>1301.4000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -6238,7 +6240,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>162</v>
       </c>
@@ -6262,7 +6264,7 @@
       <c r="AA67" s="35"/>
       <c r="AB67" s="35"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
@@ -6283,7 +6285,7 @@
       <c r="AA68" s="35"/>
       <c r="AB68" s="35"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="35"/>
@@ -6304,7 +6306,7 @@
       <c r="AA69" s="35"/>
       <c r="AB69" s="35"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
@@ -6325,7 +6327,7 @@
       <c r="AA70" s="35"/>
       <c r="AB70" s="35"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="35"/>
@@ -6346,7 +6348,7 @@
       <c r="AA71" s="35"/>
       <c r="AB71" s="35"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="35"/>
@@ -6400,17 +6402,17 @@
       <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="151" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="151" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="151" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="151" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="204" t="s">
         <v>212</v>
       </c>
@@ -6424,7 +6426,7 @@
       <c r="Z1" s="200"/>
       <c r="AA1" s="200"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="206" t="s">
         <v>196</v>
       </c>
@@ -6433,28 +6435,28 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="207"/>
       <c r="B3" s="128"/>
       <c r="C3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="207"/>
       <c r="B4" s="129"/>
       <c r="C4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="208"/>
       <c r="B5" s="130"/>
       <c r="C5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="209" t="s">
         <v>164</v>
       </c>
@@ -6474,7 +6476,7 @@
       <c r="M7" s="210"/>
       <c r="N7" s="211"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>204</v>
       </c>
@@ -6509,7 +6511,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>169</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>175</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>170.74098861102999</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>176</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>398.51061280911199</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>177</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>178</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>179</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>180</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>1437.5133426509401</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>171</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>172</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>173</v>
       </c>
@@ -6788,7 +6790,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>174</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -6846,13 +6848,13 @@
         <v>847.53371437451995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="111" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="111"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>189</v>
       </c>
@@ -6889,7 +6891,7 @@
         <v>189.08094681995385</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>182</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>170.74098861102999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="99" t="s">
         <v>183</v>
       </c>
@@ -6957,7 +6959,7 @@
         <v>18.339958208923861</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D27" s="102"/>
       <c r="E27" s="102"/>
       <c r="F27" s="102"/>
@@ -6967,7 +6969,7 @@
       <c r="J27" s="105"/>
       <c r="K27" s="155"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="102"/>
       <c r="F28" s="102"/>
@@ -6977,7 +6979,7 @@
       <c r="J28" s="105"/>
       <c r="K28" s="155"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="111" t="s">
         <v>192</v>
       </c>
@@ -6991,7 +6993,7 @@
       <c r="J29" s="105"/>
       <c r="K29" s="155"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>192</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>381.80575670712858</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>182</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>398.51061280911199</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99" t="s">
         <v>183</v>
       </c>
@@ -7093,7 +7095,7 @@
         <v>-16.70485610198341</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
       <c r="D33" s="103"/>
       <c r="E33" s="103"/>
@@ -7104,7 +7106,7 @@
       <c r="J33" s="103"/>
       <c r="K33" s="156"/>
     </row>
-    <row r="34" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99"/>
       <c r="D34" s="103"/>
       <c r="E34" s="103"/>
@@ -7115,7 +7117,7 @@
       <c r="J34" s="103"/>
       <c r="K34" s="156"/>
     </row>
-    <row r="35" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="111" t="s">
         <v>188</v>
       </c>
@@ -7129,7 +7131,7 @@
       <c r="J35" s="105"/>
       <c r="K35" s="155"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>184</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>185</v>
       </c>
@@ -7193,7 +7195,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>182</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="99" t="s">
         <v>183</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D40" s="102"/>
       <c r="E40" s="102"/>
       <c r="F40" s="102"/>
@@ -7271,7 +7273,7 @@
       <c r="J40" s="105"/>
       <c r="K40" s="155"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D41" s="102"/>
       <c r="E41" s="102"/>
       <c r="F41" s="102"/>
@@ -7281,7 +7283,7 @@
       <c r="J41" s="105"/>
       <c r="K41" s="155"/>
     </row>
-    <row r="42" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="111" t="s">
         <v>187</v>
       </c>
@@ -7295,7 +7297,7 @@
       <c r="J42" s="105"/>
       <c r="K42" s="155"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>184</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>185</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>182</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99" t="s">
         <v>183</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D47" s="102"/>
       <c r="E47" s="102"/>
       <c r="F47" s="102"/>
@@ -7437,7 +7439,7 @@
       <c r="J47" s="105"/>
       <c r="K47" s="155"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D48" s="102"/>
       <c r="E48" s="102"/>
       <c r="F48" s="102"/>
@@ -7447,7 +7449,7 @@
       <c r="J48" s="105"/>
       <c r="K48" s="155"/>
     </row>
-    <row r="49" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="106" t="s">
         <v>193</v>
       </c>
@@ -7461,7 +7463,7 @@
       <c r="J49" s="105"/>
       <c r="K49" s="155"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>193</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>1490.9394991347497</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>182</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>1437.5133426509401</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="99" t="s">
         <v>183</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>53.426156483809564</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="102"/>
@@ -7573,7 +7575,7 @@
       <c r="J53" s="105"/>
       <c r="K53" s="155"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D54" s="102"/>
       <c r="E54" s="102"/>
       <c r="F54" s="102"/>
@@ -7583,7 +7585,7 @@
       <c r="J54" s="105"/>
       <c r="K54" s="155"/>
     </row>
-    <row r="55" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="106" t="s">
         <v>194</v>
       </c>
@@ -7597,7 +7599,7 @@
       <c r="J55" s="105"/>
       <c r="K55" s="155"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="86" t="s">
         <v>194</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>1750.3509987730861</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>182</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>183</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>-994.39312881107412</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
       <c r="D59" s="103"/>
       <c r="E59" s="103"/>
@@ -7713,7 +7715,7 @@
       <c r="J59" s="103"/>
       <c r="K59" s="156"/>
     </row>
-    <row r="60" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99"/>
       <c r="D60" s="103"/>
       <c r="E60" s="103"/>
@@ -7724,7 +7726,7 @@
       <c r="J60" s="103"/>
       <c r="K60" s="156"/>
     </row>
-    <row r="61" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="106" t="s">
         <v>195</v>
       </c>
@@ -7738,7 +7740,7 @@
       <c r="J61" s="105"/>
       <c r="K61" s="155"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>216</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>95.030249999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>182</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99" t="s">
         <v>183</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>-1014.9200171346299</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D65" s="102"/>
       <c r="E65" s="102"/>
       <c r="F65" s="102"/>
@@ -7850,7 +7852,7 @@
       <c r="J65" s="105"/>
       <c r="K65" s="155"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D66" s="102"/>
       <c r="E66" s="102"/>
       <c r="F66" s="102"/>
@@ -7860,7 +7862,7 @@
       <c r="J66" s="105"/>
       <c r="K66" s="155"/>
     </row>
-    <row r="67" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="106" t="s">
         <v>201</v>
       </c>
@@ -7874,7 +7876,7 @@
       <c r="J67" s="105"/>
       <c r="K67" s="155"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>213</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>255.99754108393631</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>182</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>847.53371437451995</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="99" t="s">
         <v>183</v>
       </c>
@@ -7992,16 +7994,16 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>263</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="199">
         <v>44104</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>-534.23279446079891</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="199">
         <v>44196</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>-528.31830039695672</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="199">
         <v>44286</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>-530.05393675917412</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="199">
         <v>44377</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>-533.51455138371489</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="199">
         <v>44469</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>-519.94180369135347</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="199">
         <v>44561</v>
       </c>
@@ -8225,25 +8227,25 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="166" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="166" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="166" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="166" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="166" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="166" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="166"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="166" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="166" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="166" t="s">
         <v>239</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="166" t="s">
         <v>241</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="166" t="s">
         <v>13</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="166" t="s">
         <v>242</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="169" t="s">
         <v>243</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="166" t="s">
         <v>244</v>
       </c>
@@ -8511,10 +8513,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="172"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="166" t="s">
         <v>245</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="166" t="s">
         <v>159</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="166" t="s">
         <v>246</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="166" t="s">
         <v>20</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="166" t="s">
         <v>242</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="166" t="s">
         <v>247</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="170" t="s">
         <v>244</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="170"/>
       <c r="C21" s="170"/>
       <c r="D21" s="175">
@@ -8768,22 +8770,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="166" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="166" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="166" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="166" t="s">
         <v>35</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="166" t="s">
         <v>250</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="166" t="s">
         <v>251</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="166" t="s">
         <v>159</v>
       </c>
@@ -8838,9 +8840,9 @@
       <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -8849,7 +8851,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -8858,9 +8860,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="212" t="s">
         <v>33</v>
       </c>
@@ -8883,7 +8885,7 @@
       <c r="R5" s="213"/>
       <c r="S5" s="213"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="214" t="s">
         <v>34</v>
       </c>
@@ -8906,7 +8908,7 @@
       <c r="R6" s="214"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -8927,7 +8929,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="131"/>
       <c r="B8" s="131"/>
       <c r="C8" s="11"/>
@@ -8948,7 +8950,7 @@
       <c r="R8" s="215"/>
       <c r="S8" s="216"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="131"/>
       <c r="B9" s="131"/>
       <c r="C9" s="14"/>
@@ -8971,7 +8973,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -9006,7 +9008,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="131"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -9043,7 +9045,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="131"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -9082,7 +9084,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="131" t="s">
         <v>224</v>
       </c>
@@ -9128,7 +9130,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -9141,7 +9143,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -9201,16 +9203,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="119" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="119" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="119" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="201" t="s">
         <v>212</v>
       </c>
@@ -9232,7 +9234,7 @@
       <c r="AE1" s="200"/>
       <c r="AF1" s="200"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="218" t="s">
         <v>196</v>
       </c>
@@ -9241,28 +9243,28 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="218"/>
       <c r="B3" s="109"/>
       <c r="C3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="218"/>
       <c r="B4" s="110"/>
       <c r="C4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="218"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="209" t="s">
         <v>164</v>
       </c>
@@ -9282,7 +9284,7 @@
       <c r="M7" s="210"/>
       <c r="N7" s="211"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>204</v>
       </c>
@@ -9317,7 +9319,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>169</v>
       </c>
@@ -9335,7 +9337,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>175</v>
       </c>
@@ -9364,7 +9366,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>176</v>
       </c>
@@ -9393,7 +9395,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>177</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>178</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>179</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>180</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>171</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>172</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>173</v>
       </c>
@@ -9596,7 +9598,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>174</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -9654,13 +9656,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="111" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="111"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>190</v>
       </c>
@@ -9698,7 +9700,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>184</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>182</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
         <v>183</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -9839,7 +9841,7 @@
       <c r="J29" s="105"/>
       <c r="K29" s="123"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -9849,13 +9851,13 @@
       <c r="J30" s="105"/>
       <c r="K30" s="123"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="111" t="s">
         <v>192</v>
       </c>
       <c r="B31" s="111"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>190</v>
       </c>
@@ -9893,7 +9895,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>191</v>
       </c>
@@ -9924,7 +9926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>184</v>
       </c>
@@ -9960,7 +9962,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>182</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>183</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -10039,7 +10041,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="124"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -10050,7 +10052,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="124"/>
     </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="111" t="s">
         <v>188</v>
       </c>
@@ -10064,7 +10066,7 @@
       <c r="J39" s="105"/>
       <c r="K39" s="123"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>184</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>185</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>182</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>183</v>
       </c>
@@ -10196,7 +10198,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -10206,7 +10208,7 @@
       <c r="J44" s="105"/>
       <c r="K44" s="123"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -10216,7 +10218,7 @@
       <c r="J45" s="105"/>
       <c r="K45" s="123"/>
     </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="111" t="s">
         <v>187</v>
       </c>
@@ -10230,7 +10232,7 @@
       <c r="J46" s="105"/>
       <c r="K46" s="123"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>184</v>
       </c>
@@ -10259,7 +10261,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>185</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>182</v>
       </c>
@@ -10331,7 +10333,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>183</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -10372,13 +10374,13 @@
       <c r="J51" s="105"/>
       <c r="K51" s="123"/>
     </row>
-    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="106" t="s">
         <v>193</v>
       </c>
       <c r="B53" s="106"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>190</v>
       </c>
@@ -10416,7 +10418,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>191</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>184</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>182</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>183</v>
       </c>
@@ -10548,7 +10550,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -10558,7 +10560,7 @@
       <c r="J59" s="105"/>
       <c r="K59" s="123"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -10568,13 +10570,13 @@
       <c r="J60" s="105"/>
       <c r="K60" s="123"/>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="106" t="s">
         <v>194</v>
       </c>
       <c r="B61" s="106"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>190</v>
       </c>
@@ -10612,7 +10614,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>191</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>184</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>182</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>183</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -10754,7 +10756,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="124"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -10765,7 +10767,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="124"/>
     </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="106" t="s">
         <v>195</v>
       </c>
@@ -10779,7 +10781,7 @@
       <c r="J69" s="105"/>
       <c r="K69" s="123"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>95.030249999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>182</v>
       </c>
@@ -10850,7 +10852,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
         <v>183</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>-1014.9200171346299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -10891,7 +10893,7 @@
       <c r="J73" s="105"/>
       <c r="K73" s="123"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -10901,7 +10903,7 @@
       <c r="J74" s="105"/>
       <c r="K74" s="123"/>
     </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="106" t="s">
         <v>201</v>
       </c>
@@ -10915,7 +10917,7 @@
       <c r="J75" s="105"/>
       <c r="K75" s="123"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>190</v>
       </c>
@@ -10952,7 +10954,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>191</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="112" t="s">
         <v>202</v>
       </c>
@@ -11000,7 +11002,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="123"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="113" t="s">
         <v>203</v>
       </c>
@@ -11019,7 +11021,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="123"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>184</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>182</v>
       </c>
@@ -11093,7 +11095,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
         <v>183</v>
       </c>
@@ -11148,18 +11150,18 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="10" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="223" t="s">
         <v>105</v>
       </c>
@@ -11173,7 +11175,7 @@
       <c r="I2" s="223"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="223" t="s">
         <v>106</v>
       </c>
@@ -11187,7 +11189,7 @@
       <c r="I3" s="223"/>
       <c r="J3" s="77"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="224"/>
       <c r="B4" s="224"/>
       <c r="C4" s="224"/>
@@ -11204,7 +11206,7 @@
       <c r="L4" s="229"/>
       <c r="M4" s="229"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="225" t="s">
@@ -11223,7 +11225,7 @@
       <c r="L5" s="200"/>
       <c r="M5" s="200"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -11291,7 +11293,7 @@
       </c>
       <c r="J7" s="78"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>1044.2666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
         <v>132</v>
       </c>
@@ -11351,7 +11353,7 @@
       <c r="M9" s="73"/>
       <c r="W9" s="72"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -11480,7 +11482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="J13" s="35" t="s">
         <v>141</v>
       </c>
@@ -11497,12 +11499,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>121</v>
       </c>
@@ -11546,7 +11548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="I18" s="79" t="s">
         <v>140</v>
       </c>
@@ -11587,7 +11589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -11601,7 +11603,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:19" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -11611,7 +11613,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="69" t="s">
         <v>122</v>
       </c>
@@ -11620,7 +11622,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>123</v>
@@ -11636,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>124</v>
@@ -11664,7 +11666,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>125</v>
@@ -11707,7 +11709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>59</v>
@@ -11731,7 +11733,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -11778,7 +11780,7 @@
       </c>
       <c r="S26" s="72"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="67" t="s">
@@ -11803,7 +11805,7 @@
       <c r="Q27" s="35"/>
       <c r="R27" s="72"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="I28" s="82" t="s">
         <v>145</v>
       </c>
@@ -11838,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>127</v>
       </c>
@@ -11884,7 +11886,7 @@
       </c>
       <c r="R29" s="72"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>128</v>
       </c>
@@ -11932,7 +11934,7 @@
       </c>
       <c r="R30" s="72"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>129</v>
       </c>
@@ -11975,7 +11977,7 @@
       </c>
       <c r="R31" s="72"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>130</v>
       </c>
@@ -11993,7 +11995,7 @@
       </c>
       <c r="M32" s="72"/>
     </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
       <c r="I33" s="85" t="s">
         <v>146</v>
       </c>
@@ -12023,7 +12025,7 @@
       </c>
       <c r="R33" s="72"/>
     </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>147</v>
       </c>
@@ -12060,14 +12062,14 @@
       </c>
       <c r="S34" s="72"/>
     </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
       <c r="M35" s="72">
         <f>SUM(J34:M34)</f>
         <v>187.11</v>
       </c>
       <c r="Q35" s="72"/>
     </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
       <c r="I37" t="s">
@@ -12106,7 +12108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>130</v>
       </c>
@@ -12166,19 +12168,19 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>95</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12254,29 +12256,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="231"/>
-      <c r="R6" s="231"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="230" t="s">
         <v>89</v>
       </c>
@@ -12298,7 +12300,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="230" t="s">
         <v>90</v>
@@ -12348,7 +12350,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="230" t="s">
         <v>91</v>
@@ -12398,7 +12400,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="230" t="s">
         <v>92</v>
@@ -12448,7 +12450,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="230" t="s">
         <v>59</v>
@@ -12498,7 +12500,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -12546,7 +12548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="230" t="s">
@@ -12596,7 +12598,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -12646,7 +12648,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -12696,12 +12698,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="230" t="s">
         <v>90</v>
@@ -12764,7 +12766,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="230" t="s">
         <v>91</v>
@@ -12828,7 +12830,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="230" t="s">
         <v>92</v>
@@ -12891,7 +12893,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="230" t="s">
         <v>59</v>
@@ -12954,7 +12956,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -13002,7 +13004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -13010,23 +13012,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="232" t="s">
+      <c r="H27" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="232"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="232"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="232"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="232"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="231"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>97</v>
       </c>
@@ -13050,7 +13052,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>90</v>
@@ -13098,7 +13100,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>91</v>
@@ -13146,7 +13148,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>92</v>
@@ -13194,7 +13196,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>59</v>
@@ -13242,7 +13244,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -13286,7 +13288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -13334,29 +13336,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="233" t="s">
+      <c r="F37" s="232" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="233"/>
-      <c r="H37" s="233"/>
-      <c r="I37" s="233"/>
-      <c r="J37" s="233"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="233"/>
-      <c r="M37" s="233"/>
-      <c r="N37" s="233"/>
-      <c r="O37" s="233"/>
-      <c r="P37" s="233"/>
-      <c r="Q37" s="233"/>
-      <c r="R37" s="233"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="232"/>
+      <c r="K37" s="232"/>
+      <c r="L37" s="232"/>
+      <c r="M37" s="232"/>
+      <c r="N37" s="232"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="232"/>
+      <c r="Q37" s="232"/>
+      <c r="R37" s="232"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>101</v>
       </c>
@@ -13378,7 +13380,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>90</v>
@@ -13426,7 +13428,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>92</v>
@@ -13474,7 +13476,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>91</v>
@@ -13522,7 +13524,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>59</v>
@@ -13570,7 +13572,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -13616,7 +13618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -13664,29 +13666,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="232" t="s">
+      <c r="F48" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="232"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="232"/>
-      <c r="N48" s="232"/>
-      <c r="O48" s="232"/>
-      <c r="P48" s="232"/>
-      <c r="Q48" s="232"/>
-      <c r="R48" s="232"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="231"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="231"/>
+      <c r="M48" s="231"/>
+      <c r="N48" s="231"/>
+      <c r="O48" s="231"/>
+      <c r="P48" s="231"/>
+      <c r="Q48" s="231"/>
+      <c r="R48" s="231"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>97</v>
       </c>
@@ -13708,7 +13710,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>90</v>
@@ -13756,7 +13758,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>92</v>
@@ -13804,7 +13806,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>91</v>
@@ -13852,7 +13854,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>59</v>
@@ -13900,7 +13902,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -13946,7 +13948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -13996,6 +13998,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14004,12 +14012,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14025,9 +14027,9 @@
       <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -14036,7 +14038,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -14045,9 +14047,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="212" t="s">
         <v>33</v>
       </c>
@@ -14070,7 +14072,7 @@
       <c r="R5" s="213"/>
       <c r="S5" s="213"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="214" t="s">
         <v>34</v>
       </c>
@@ -14093,7 +14095,7 @@
       <c r="R6" s="214"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -14114,7 +14116,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -14136,7 +14138,7 @@
       </c>
       <c r="S8" s="216"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -14163,7 +14165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -14212,7 +14214,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
@@ -14235,7 +14237,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>39</v>
@@ -14286,7 +14288,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>40</v>
@@ -14337,7 +14339,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -14386,7 +14388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -14437,7 +14439,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -14458,7 +14460,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -14481,7 +14483,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>45</v>
@@ -14532,7 +14534,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -14583,7 +14585,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>46</v>
@@ -14634,7 +14636,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>47</v>
@@ -14685,7 +14687,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -14734,7 +14736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -14786,7 +14788,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -14810,7 +14812,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
@@ -14833,7 +14835,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>50</v>
@@ -14884,7 +14886,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>51</v>
@@ -14935,7 +14937,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>52</v>
@@ -14986,7 +14988,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>53</v>
@@ -15037,7 +15039,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>54</v>
@@ -15088,7 +15090,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>55</v>
@@ -15139,7 +15141,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -15188,7 +15190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -15239,7 +15241,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -15270,7 +15272,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -15306,7 +15308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>57</v>
@@ -15370,7 +15372,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>58</v>
@@ -15434,7 +15436,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>59</v>
@@ -15498,7 +15500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -15547,7 +15549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -15611,7 +15613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -15645,7 +15647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>61</v>
@@ -15737,7 +15739,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>59</v>
@@ -15788,7 +15790,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -15837,7 +15839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -15888,7 +15890,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -15921,7 +15923,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
         <v>151</v>
       </c>
@@ -15947,7 +15949,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
         <v>159</v>
       </c>
@@ -15979,7 +15981,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="89" t="s">
         <v>160</v>
       </c>
@@ -16011,7 +16013,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -16032,7 +16034,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>62</v>
       </c>
@@ -16055,7 +16057,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>63</v>
@@ -16106,7 +16108,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>64</v>
@@ -16157,7 +16159,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>65</v>
@@ -16208,7 +16210,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>66</v>
@@ -16259,7 +16261,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>67</v>
@@ -16310,7 +16312,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>68</v>
@@ -16361,7 +16363,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>69</v>
@@ -16412,7 +16414,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>59</v>
@@ -16463,7 +16465,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -16512,7 +16514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -16563,7 +16565,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -16584,7 +16586,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
@@ -16607,7 +16609,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>71</v>
       </c>
@@ -16658,7 +16660,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -16679,7 +16681,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>72</v>
       </c>
@@ -16702,7 +16704,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>73</v>
@@ -16753,7 +16755,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>74</v>
@@ -16776,7 +16778,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>75</v>
@@ -16799,7 +16801,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -16850,7 +16852,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -16901,7 +16903,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -16952,7 +16954,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -17001,7 +17003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -17052,7 +17054,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -17073,7 +17075,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>78</v>
@@ -17124,7 +17126,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>67</v>
@@ -17175,7 +17177,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>68</v>
@@ -17226,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>59</v>
@@ -17277,7 +17279,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -17326,7 +17328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -17377,7 +17379,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -17398,7 +17400,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -17421,7 +17423,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -17473,7 +17475,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -17495,7 +17497,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>81</v>
       </c>
@@ -17519,7 +17521,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>82</v>
       </c>
@@ -17542,7 +17544,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>83</v>
@@ -17593,7 +17595,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>84</v>
@@ -17644,7 +17646,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -17897,18 +17899,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17931,6 +17933,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17945,12 +17955,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>